--- a/server_test/out.xlsx
+++ b/server_test/out.xlsx
@@ -1447,7 +1447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
@@ -1790,10 +1790,18 @@
       <c r="AB4" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="AC4" s="28" t="n"/>
-      <c r="AD4" s="28" t="n"/>
-      <c r="AE4" s="29" t="n"/>
-      <c r="AF4" s="29" t="n"/>
+      <c r="AC4" s="28" t="inlineStr"/>
+      <c r="AD4" s="28" t="inlineStr"/>
+      <c r="AE4" s="29" t="inlineStr"/>
+      <c r="AF4" s="29" t="inlineStr"/>
+      <c r="AG4" s="0" t="inlineStr"/>
+      <c r="AH4" s="0" t="inlineStr"/>
+      <c r="AI4" s="0" t="inlineStr"/>
+      <c r="AJ4" s="0" t="inlineStr"/>
+      <c r="AK4" s="0" t="inlineStr"/>
+      <c r="AL4" s="0" t="inlineStr"/>
+      <c r="AM4" s="0" t="inlineStr"/>
+      <c r="AN4" s="0" t="inlineStr"/>
     </row>
     <row r="5" ht="16.5" customHeight="1" s="1">
       <c r="A5" s="9" t="n">
@@ -1880,11 +1888,19 @@
       <c r="AC5" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="AD5" s="28" t="n"/>
-      <c r="AE5" s="29" t="n">
+      <c r="AD5" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="AF5" s="29" t="n"/>
+      <c r="AE5" s="29" t="inlineStr"/>
+      <c r="AF5" s="29" t="inlineStr"/>
+      <c r="AG5" s="0" t="inlineStr"/>
+      <c r="AH5" s="0" t="inlineStr"/>
+      <c r="AI5" s="0" t="inlineStr"/>
+      <c r="AJ5" s="0" t="inlineStr"/>
+      <c r="AK5" s="0" t="inlineStr"/>
+      <c r="AL5" s="0" t="inlineStr"/>
+      <c r="AM5" s="0" t="inlineStr"/>
+      <c r="AN5" s="0" t="inlineStr"/>
     </row>
     <row r="6" ht="16.5" customHeight="1" s="1">
       <c r="A6" s="9" t="n">
@@ -1948,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="18" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="X6" s="18" t="n">
         <v>16</v>
@@ -1957,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="18" t="n">
-        <v>0</v>
+        <v>0.33333</v>
       </c>
       <c r="AB6" s="28" t="n">
         <v>1</v>
@@ -1965,13 +1981,21 @@
       <c r="AC6" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="AD6" s="28" t="n"/>
+      <c r="AD6" s="28" t="n">
+        <v>5</v>
+      </c>
       <c r="AE6" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="29" t="n">
         <v>3</v>
       </c>
+      <c r="AF6" s="29" t="inlineStr"/>
+      <c r="AG6" s="0" t="inlineStr"/>
+      <c r="AH6" s="0" t="inlineStr"/>
+      <c r="AI6" s="0" t="inlineStr"/>
+      <c r="AJ6" s="0" t="inlineStr"/>
+      <c r="AK6" s="0" t="inlineStr"/>
+      <c r="AL6" s="0" t="inlineStr"/>
+      <c r="AM6" s="0" t="inlineStr"/>
+      <c r="AN6" s="0" t="inlineStr"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" s="1">
       <c r="A7" s="9" t="n">
@@ -1989,7 +2013,7 @@
       </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="10" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="H7" s="10" t="n">
         <v>18</v>
@@ -2037,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="18" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="X7" s="18" t="n">
         <v>16</v>
@@ -2046,24 +2070,31 @@
         <v>0</v>
       </c>
       <c r="Z7" s="18" t="n">
-        <v>0</v>
+        <v>0.66666</v>
       </c>
       <c r="AB7" s="28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="AD7" s="28" t="n"/>
+      <c r="AD7" s="28" t="n">
+        <v>2</v>
+      </c>
       <c r="AE7" s="29" t="n">
         <v>3</v>
       </c>
       <c r="AF7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
         <v>4</v>
       </c>
+      <c r="AG7" s="0" t="inlineStr"/>
+      <c r="AH7" s="0" t="inlineStr"/>
+      <c r="AI7" s="0" t="inlineStr"/>
+      <c r="AJ7" s="0" t="inlineStr"/>
+      <c r="AK7" s="0" t="inlineStr"/>
+      <c r="AL7" s="0" t="inlineStr"/>
+      <c r="AM7" s="0" t="inlineStr"/>
+      <c r="AN7" s="0" t="inlineStr"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" s="1">
       <c r="A8" s="9" t="n">
@@ -2077,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="10" t="n">
         <v>18</v>
@@ -2086,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="10" t="n">
-        <v>0.99999</v>
+        <v>1.33332</v>
       </c>
       <c r="K8" s="18" t="n">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="L8" s="18" t="n">
         <v>19</v>
@@ -2125,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="18" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="X8" s="18" t="n">
         <v>16</v>
@@ -2134,24 +2165,31 @@
         <v>0</v>
       </c>
       <c r="Z8" s="18" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="AB8" s="28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="AD8" s="28" t="n"/>
+      <c r="AD8" s="28" t="n">
+        <v>5</v>
+      </c>
       <c r="AE8" s="29" t="n">
         <v>4</v>
       </c>
       <c r="AF8" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AG8" t="n">
-        <v>2</v>
-      </c>
+      <c r="AG8" s="0" t="inlineStr"/>
+      <c r="AH8" s="0" t="inlineStr"/>
+      <c r="AI8" s="0" t="inlineStr"/>
+      <c r="AJ8" s="0" t="inlineStr"/>
+      <c r="AK8" s="0" t="inlineStr"/>
+      <c r="AL8" s="0" t="inlineStr"/>
+      <c r="AM8" s="0" t="inlineStr"/>
+      <c r="AN8" s="0" t="inlineStr"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" s="1">
       <c r="A9" s="9" t="n">
@@ -2176,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="10" t="n">
-        <v>0.99999</v>
+        <v>1.33332</v>
       </c>
       <c r="K9" s="18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="18" t="n">
         <v>19</v>
@@ -2188,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="18" t="n">
-        <v>0.99999</v>
+        <v>1.33332</v>
       </c>
       <c r="O9" s="19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9" s="19" t="n">
         <v>16</v>
@@ -2215,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="18" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="X9" s="18" t="n">
         <v>22</v>
@@ -2224,24 +2262,31 @@
         <v>0</v>
       </c>
       <c r="Z9" s="18" t="n">
-        <v>0.66666</v>
+        <v>1.33332</v>
       </c>
       <c r="AB9" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AC9" s="28" t="n">
+      <c r="AD9" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="AD9" s="28" t="n"/>
       <c r="AE9" s="29" t="n">
         <v>2</v>
       </c>
       <c r="AF9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="AG9" t="n">
-        <v>3</v>
-      </c>
+      <c r="AG9" s="0" t="inlineStr"/>
+      <c r="AH9" s="0" t="inlineStr"/>
+      <c r="AI9" s="0" t="inlineStr"/>
+      <c r="AJ9" s="0" t="inlineStr"/>
+      <c r="AK9" s="0" t="inlineStr"/>
+      <c r="AL9" s="0" t="inlineStr"/>
+      <c r="AM9" s="0" t="inlineStr"/>
+      <c r="AN9" s="0" t="inlineStr"/>
     </row>
     <row r="10" ht="16.5" customHeight="1" s="1">
       <c r="A10" s="9" t="n">
@@ -2266,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="10" t="n">
-        <v>1.33332</v>
+        <v>1.66665</v>
       </c>
       <c r="K10" s="20" t="n">
         <v>22.5</v>
@@ -2278,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="O10" s="19" t="n">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="P10" s="19" t="n">
         <v>16</v>
@@ -2290,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="19" t="n">
-        <v>0.33333</v>
+        <v>0.66666</v>
       </c>
       <c r="S10" s="25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10" s="25" t="n">
         <v>16</v>
@@ -2305,7 +2350,7 @@
         <v>0.33333</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="X10" s="18" t="n">
         <v>22</v>
@@ -2314,22 +2359,29 @@
         <v>0</v>
       </c>
       <c r="Z10" s="18" t="n">
-        <v>0.66666</v>
+        <v>1.33332</v>
       </c>
       <c r="AB10" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="AC10" s="28" t="n"/>
-      <c r="AD10" s="28" t="n"/>
       <c r="AE10" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="AG10" t="n">
-        <v>4</v>
-      </c>
+      <c r="AF10" s="29" t="inlineStr"/>
+      <c r="AG10" s="0" t="inlineStr"/>
+      <c r="AH10" s="0" t="inlineStr"/>
+      <c r="AI10" s="0" t="inlineStr"/>
+      <c r="AJ10" s="0" t="inlineStr"/>
+      <c r="AK10" s="0" t="inlineStr"/>
+      <c r="AL10" s="0" t="inlineStr"/>
+      <c r="AM10" s="0" t="inlineStr"/>
+      <c r="AN10" s="0" t="inlineStr"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" s="1">
       <c r="A11" s="9" t="n">
@@ -2358,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>2.33332</v>
+        <v>2.66665</v>
       </c>
       <c r="K11" s="18" t="n">
         <v>23</v>
@@ -2370,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="18" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="O11" s="19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="19" t="n">
         <v>16</v>
@@ -2382,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="19" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="S11" s="25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="T11" s="25" t="n">
         <v>16</v>
@@ -2394,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="25" t="n">
-        <v>0.33333</v>
+        <v>0.66666</v>
       </c>
       <c r="W11" s="18" t="n">
         <v>22</v>
@@ -2406,24 +2458,31 @@
         <v>0</v>
       </c>
       <c r="Z11" s="18" t="n">
-        <v>0.66666</v>
+        <v>1.33332</v>
       </c>
       <c r="AB11" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="AC11" s="28" t="n">
+      <c r="AD11" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="AD11" s="28" t="n"/>
       <c r="AE11" s="29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="AG11" t="n">
-        <v>3</v>
-      </c>
+      <c r="AG11" s="0" t="inlineStr"/>
+      <c r="AH11" s="0" t="inlineStr"/>
+      <c r="AI11" s="0" t="inlineStr"/>
+      <c r="AJ11" s="0" t="inlineStr"/>
+      <c r="AK11" s="0" t="inlineStr"/>
+      <c r="AL11" s="0" t="inlineStr"/>
+      <c r="AM11" s="0" t="inlineStr"/>
+      <c r="AN11" s="0" t="inlineStr"/>
     </row>
     <row r="12" ht="16.5" customHeight="1" s="1">
       <c r="A12" s="9" t="n">
@@ -2444,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="10" t="n">
-        <v>3.33332</v>
+        <v>3.66665</v>
       </c>
       <c r="K12" s="18" t="n">
         <v>23</v>
@@ -2456,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="18" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="O12" s="21" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="P12" s="19" t="n">
         <v>16</v>
@@ -2468,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="19" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="S12" s="25" t="n">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="T12" s="25" t="n">
         <v>16</v>
@@ -2480,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="25" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="W12" s="18" t="n">
         <v>22</v>
@@ -2489,19 +2548,19 @@
         <v>22</v>
       </c>
       <c r="Y12" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="18" t="n">
-        <v>0.99999</v>
+        <v>1.66665</v>
       </c>
       <c r="AB12" s="28" t="n">
         <v>4</v>
       </c>
       <c r="AC12" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="28" t="n">
         <v>5</v>
-      </c>
-      <c r="AD12" s="28" t="n">
-        <v>1</v>
       </c>
       <c r="AE12" s="29" t="n">
         <v>3</v>
@@ -2509,9 +2568,14 @@
       <c r="AF12" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="AG12" t="n">
-        <v>5</v>
-      </c>
+      <c r="AG12" s="0" t="inlineStr"/>
+      <c r="AH12" s="0" t="inlineStr"/>
+      <c r="AI12" s="0" t="inlineStr"/>
+      <c r="AJ12" s="0" t="inlineStr"/>
+      <c r="AK12" s="0" t="inlineStr"/>
+      <c r="AL12" s="0" t="inlineStr"/>
+      <c r="AM12" s="0" t="inlineStr"/>
+      <c r="AN12" s="0" t="inlineStr"/>
     </row>
     <row r="13" ht="16.5" customHeight="1" s="1">
       <c r="A13" s="9" t="n">
@@ -2538,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="10" t="n">
-        <v>4.33332</v>
+        <v>4.66665</v>
       </c>
       <c r="K13" s="18" t="n">
         <v>22.5</v>
@@ -2550,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="18" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="O13" s="21" t="n">
         <v>24</v>
@@ -2562,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="19" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="S13" s="25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="T13" s="25" t="n">
         <v>16</v>
@@ -2574,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="25" t="n">
-        <v>0.66666</v>
+        <v>1.33332</v>
       </c>
       <c r="W13" s="18" t="n">
         <v>22</v>
@@ -2583,10 +2647,10 @@
         <v>22</v>
       </c>
       <c r="Y13" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="18" t="n">
-        <v>1.33332</v>
+        <v>2.66665</v>
       </c>
       <c r="AB13" s="28" t="n">
         <v>1</v>
@@ -2598,14 +2662,19 @@
         <v>4</v>
       </c>
       <c r="AE13" s="29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AG13" s="0" t="inlineStr"/>
+      <c r="AH13" s="0" t="inlineStr"/>
+      <c r="AI13" s="0" t="inlineStr"/>
+      <c r="AJ13" s="0" t="inlineStr"/>
+      <c r="AK13" s="0" t="inlineStr"/>
+      <c r="AL13" s="0" t="inlineStr"/>
+      <c r="AM13" s="0" t="inlineStr"/>
+      <c r="AN13" s="0" t="inlineStr"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" s="1">
       <c r="A14" s="9" t="n">
@@ -2626,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="10" t="n">
-        <v>5.33332</v>
+        <v>5.66665</v>
       </c>
       <c r="K14" s="18" t="n">
         <v>23</v>
@@ -2638,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="18" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="O14" s="21" t="n">
         <v>24</v>
@@ -2650,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="19" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="S14" s="25" t="n">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="T14" s="25" t="n">
         <v>18</v>
@@ -2662,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="V14" s="25" t="n">
-        <v>0.99999</v>
+        <v>1.66665</v>
       </c>
       <c r="W14" s="18" t="n">
         <v>22</v>
@@ -2671,10 +2740,10 @@
         <v>22</v>
       </c>
       <c r="Y14" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="18" t="n">
-        <v>1.66665</v>
+        <v>3.66665</v>
       </c>
       <c r="AB14" s="28" t="n">
         <v>1</v>
@@ -2686,14 +2755,19 @@
         <v>4</v>
       </c>
       <c r="AE14" s="29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AG14" s="0" t="inlineStr"/>
+      <c r="AH14" s="0" t="inlineStr"/>
+      <c r="AI14" s="0" t="inlineStr"/>
+      <c r="AJ14" s="0" t="inlineStr"/>
+      <c r="AK14" s="0" t="inlineStr"/>
+      <c r="AL14" s="0" t="inlineStr"/>
+      <c r="AM14" s="0" t="inlineStr"/>
+      <c r="AN14" s="0" t="inlineStr"/>
     </row>
     <row r="15" ht="16.5" customHeight="1" s="1">
       <c r="A15" s="9" t="n">
@@ -2716,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="10" t="n">
-        <v>6.33332</v>
+        <v>6.66665</v>
       </c>
       <c r="K15" s="18" t="n">
         <v>23</v>
@@ -2728,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="18" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="O15" s="21" t="n">
         <v>24</v>
@@ -2740,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="19" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="S15" s="25" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="T15" s="25" t="n">
         <v>18</v>
@@ -2752,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="V15" s="25" t="n">
-        <v>1.99999</v>
+        <v>2.66665</v>
       </c>
       <c r="W15" s="18" t="n">
         <v>22</v>
@@ -2761,10 +2835,10 @@
         <v>22</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>1.99998</v>
+        <v>4.66665</v>
       </c>
       <c r="AB15" s="28" t="n">
         <v>1</v>
@@ -2776,14 +2850,19 @@
         <v>4</v>
       </c>
       <c r="AE15" s="29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AG15" s="0" t="inlineStr"/>
+      <c r="AH15" s="0" t="inlineStr"/>
+      <c r="AI15" s="0" t="inlineStr"/>
+      <c r="AJ15" s="0" t="inlineStr"/>
+      <c r="AK15" s="0" t="inlineStr"/>
+      <c r="AL15" s="0" t="inlineStr"/>
+      <c r="AM15" s="0" t="inlineStr"/>
+      <c r="AN15" s="0" t="inlineStr"/>
     </row>
     <row r="16" ht="16.5" customHeight="1" s="1">
       <c r="A16" s="9" t="n">
@@ -2808,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="10" t="n">
-        <v>7.33332</v>
+        <v>7.66665</v>
       </c>
       <c r="K16" s="22" t="n">
         <v>23</v>
@@ -2820,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="18" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="O16" s="19" t="n">
         <v>24</v>
@@ -2832,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="19" t="n">
-        <v>0.66666</v>
+        <v>0.99999</v>
       </c>
       <c r="S16" s="26" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="T16" s="26" t="n">
         <v>18</v>
@@ -2844,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="V16" s="25" t="n">
-        <v>2.99999</v>
+        <v>3.66665</v>
       </c>
       <c r="W16" s="20" t="n">
         <v>22</v>
@@ -2853,13 +2932,13 @@
         <v>22</v>
       </c>
       <c r="Y16" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="18" t="n">
-        <v>2.33331</v>
+        <v>5.66665</v>
       </c>
       <c r="AB16" s="28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="28" t="n">
         <v>4</v>
@@ -2871,11 +2950,16 @@
         <v>5</v>
       </c>
       <c r="AF16" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AG16" s="0" t="inlineStr"/>
+      <c r="AH16" s="0" t="inlineStr"/>
+      <c r="AI16" s="0" t="inlineStr"/>
+      <c r="AJ16" s="0" t="inlineStr"/>
+      <c r="AK16" s="0" t="inlineStr"/>
+      <c r="AL16" s="0" t="inlineStr"/>
+      <c r="AM16" s="0" t="inlineStr"/>
+      <c r="AN16" s="0" t="inlineStr"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" s="1">
       <c r="A17" s="9" t="n">
@@ -2896,10 +2980,10 @@
         <v>2</v>
       </c>
       <c r="J17" s="10" t="n">
-        <v>8.333320000000001</v>
+        <v>8.666650000000001</v>
       </c>
       <c r="K17" s="20" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="L17" s="20" t="n">
         <v>22</v>
@@ -2908,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="18" t="n">
-        <v>126</v>
+        <v>126.666</v>
       </c>
       <c r="O17" s="19" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="P17" s="19" t="n">
         <v>16</v>
@@ -2920,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="19" t="n">
-        <v>0.66666</v>
+        <v>0.99999</v>
       </c>
       <c r="S17" s="26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T17" s="25" t="n">
         <v>18</v>
@@ -2932,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="V17" s="25" t="n">
-        <v>3.99999</v>
+        <v>4.66665</v>
       </c>
       <c r="W17" s="20" t="n">
         <v>22</v>
@@ -2944,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="Z17" s="18" t="n">
-        <v>2.33331</v>
+        <v>5.66665</v>
       </c>
       <c r="AB17" s="28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="28" t="n">
         <v>4</v>
@@ -2959,11 +3043,16 @@
         <v>5</v>
       </c>
       <c r="AF17" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AG17" s="0" t="inlineStr"/>
+      <c r="AH17" s="0" t="inlineStr"/>
+      <c r="AI17" s="0" t="inlineStr"/>
+      <c r="AJ17" s="0" t="inlineStr"/>
+      <c r="AK17" s="0" t="inlineStr"/>
+      <c r="AL17" s="0" t="inlineStr"/>
+      <c r="AM17" s="0" t="inlineStr"/>
+      <c r="AN17" s="0" t="inlineStr"/>
     </row>
     <row r="18" ht="16.5" customHeight="1" s="1">
       <c r="A18" s="9" t="n">
@@ -2992,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K18" s="20" t="n">
         <v>23</v>
@@ -3004,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="18" t="n">
-        <v>126</v>
+        <v>126.999</v>
       </c>
       <c r="O18" s="19" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="P18" s="19" t="n">
         <v>16</v>
@@ -3019,7 +3108,7 @@
         <v>0.99999</v>
       </c>
       <c r="S18" s="25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="T18" s="25" t="n">
         <v>18</v>
@@ -3028,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="V18" s="25" t="n">
-        <v>4.99999</v>
+        <v>5.66665</v>
       </c>
       <c r="W18" s="18" t="n">
         <v>22</v>
@@ -3040,24 +3129,29 @@
         <v>0</v>
       </c>
       <c r="Z18" s="18" t="n">
-        <v>2.33331</v>
+        <v>5.66665</v>
       </c>
       <c r="AB18" s="28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AD18" s="28" t="n"/>
+      <c r="AD18" s="28" t="inlineStr"/>
       <c r="AE18" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="AF18" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>3</v>
-      </c>
+      <c r="AG18" s="0" t="inlineStr"/>
+      <c r="AH18" s="0" t="inlineStr"/>
+      <c r="AI18" s="0" t="inlineStr"/>
+      <c r="AJ18" s="0" t="inlineStr"/>
+      <c r="AK18" s="0" t="inlineStr"/>
+      <c r="AL18" s="0" t="inlineStr"/>
+      <c r="AM18" s="0" t="inlineStr"/>
+      <c r="AN18" s="0" t="inlineStr"/>
     </row>
     <row r="19" ht="16.5" customHeight="1" s="1">
       <c r="A19" s="9" t="n">
@@ -3082,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K19" s="18" t="n">
         <v>23</v>
@@ -3094,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="18" t="n">
-        <v>126</v>
+        <v>126.999</v>
       </c>
       <c r="O19" s="19" t="n">
         <v>24</v>
@@ -3106,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="19" t="n">
-        <v>0.99999</v>
+        <v>1.33332</v>
       </c>
       <c r="S19" s="26" t="n">
         <v>18</v>
@@ -3118,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="V19" s="25" t="n">
-        <v>5.99999</v>
+        <v>6.66665</v>
       </c>
       <c r="W19" s="20" t="n">
         <v>22</v>
@@ -3130,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>2.66664</v>
+        <v>5.66665</v>
       </c>
       <c r="AB19" s="28" t="n">
         <v>4</v>
@@ -3138,16 +3232,21 @@
       <c r="AC19" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="AD19" s="28" t="n"/>
+      <c r="AD19" s="28" t="inlineStr"/>
       <c r="AE19" s="29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG19" t="n">
         <v>3</v>
       </c>
+      <c r="AG19" s="0" t="inlineStr"/>
+      <c r="AH19" s="0" t="inlineStr"/>
+      <c r="AI19" s="0" t="inlineStr"/>
+      <c r="AJ19" s="0" t="inlineStr"/>
+      <c r="AK19" s="0" t="inlineStr"/>
+      <c r="AL19" s="0" t="inlineStr"/>
+      <c r="AM19" s="0" t="inlineStr"/>
+      <c r="AN19" s="0" t="inlineStr"/>
     </row>
     <row r="20" ht="16.5" customHeight="1" s="1">
       <c r="A20" s="9" t="n">
@@ -3172,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K20" s="20" t="n">
         <v>23</v>
@@ -3184,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O20" s="19" t="n">
         <v>24</v>
@@ -3196,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="19" t="n">
-        <v>0.99999</v>
+        <v>1.33332</v>
       </c>
       <c r="S20" s="26" t="n">
         <v>18</v>
@@ -3208,19 +3307,19 @@
         <v>2</v>
       </c>
       <c r="V20" s="25" t="n">
-        <v>6.99999</v>
+        <v>7.66665</v>
       </c>
       <c r="W20" s="20" t="n">
         <v>21.5</v>
       </c>
       <c r="X20" s="18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y20" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="18" t="n">
-        <v>2.99997</v>
+        <v>5.99998</v>
       </c>
       <c r="AB20" s="28" t="n">
         <v>4</v>
@@ -3228,13 +3327,19 @@
       <c r="AC20" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="AD20" s="28" t="n"/>
+      <c r="AD20" s="28" t="inlineStr"/>
       <c r="AE20" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="29" t="n">
         <v>3</v>
       </c>
+      <c r="AF20" s="29" t="inlineStr"/>
+      <c r="AG20" s="0" t="inlineStr"/>
+      <c r="AH20" s="0" t="inlineStr"/>
+      <c r="AI20" s="0" t="inlineStr"/>
+      <c r="AJ20" s="0" t="inlineStr"/>
+      <c r="AK20" s="0" t="inlineStr"/>
+      <c r="AL20" s="0" t="inlineStr"/>
+      <c r="AM20" s="0" t="inlineStr"/>
+      <c r="AN20" s="0" t="inlineStr"/>
     </row>
     <row r="21" ht="16.5" customHeight="1" s="1">
       <c r="A21" s="9" t="n">
@@ -3259,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K21" s="20" t="n">
         <v>23</v>
@@ -3271,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O21" s="19" t="n">
         <v>24</v>
@@ -3283,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="19" t="n">
-        <v>0.99999</v>
+        <v>1.33332</v>
       </c>
       <c r="S21" s="25" t="n">
         <v>18</v>
@@ -3295,19 +3400,19 @@
         <v>2</v>
       </c>
       <c r="V21" s="25" t="n">
-        <v>7.99999</v>
+        <v>8.666650000000001</v>
       </c>
       <c r="W21" s="18" t="n">
         <v>21</v>
       </c>
       <c r="X21" s="18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="18" t="n">
-        <v>3.3333</v>
+        <v>6.99998</v>
       </c>
       <c r="AB21" s="28" t="n">
         <v>5</v>
@@ -3315,13 +3420,19 @@
       <c r="AC21" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="AD21" s="28" t="n"/>
+      <c r="AD21" s="28" t="inlineStr"/>
       <c r="AE21" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="AF21" s="29" t="n">
-        <v>5</v>
-      </c>
+      <c r="AF21" s="29" t="inlineStr"/>
+      <c r="AG21" s="0" t="inlineStr"/>
+      <c r="AH21" s="0" t="inlineStr"/>
+      <c r="AI21" s="0" t="inlineStr"/>
+      <c r="AJ21" s="0" t="inlineStr"/>
+      <c r="AK21" s="0" t="inlineStr"/>
+      <c r="AL21" s="0" t="inlineStr"/>
+      <c r="AM21" s="0" t="inlineStr"/>
+      <c r="AN21" s="0" t="inlineStr"/>
     </row>
     <row r="22" ht="16.5" customHeight="1" s="1">
       <c r="A22" s="9" t="n">
@@ -3350,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K22" s="20" t="n">
         <v>23</v>
@@ -3362,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O22" s="19" t="n">
         <v>24</v>
@@ -3374,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="R22" s="19" t="n">
-        <v>1.33332</v>
+        <v>1.66665</v>
       </c>
       <c r="S22" s="26" t="n">
         <v>18.5</v>
@@ -3386,36 +3497,41 @@
         <v>2</v>
       </c>
       <c r="V22" s="25" t="n">
-        <v>7.99999</v>
+        <v>8.666650000000001</v>
       </c>
       <c r="W22" s="20" t="n">
         <v>20.5</v>
       </c>
       <c r="X22" s="20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="18" t="n">
-        <v>3.66663</v>
+        <v>7.99998</v>
       </c>
       <c r="AB22" s="28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC22" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="AD22" s="28" t="n"/>
+      <c r="AD22" s="28" t="n">
+        <v>5</v>
+      </c>
       <c r="AE22" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF22" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="AG22" t="n">
-        <v>5</v>
-      </c>
+      <c r="AF22" s="29" t="inlineStr"/>
+      <c r="AG22" s="0" t="inlineStr"/>
+      <c r="AH22" s="0" t="inlineStr"/>
+      <c r="AI22" s="0" t="inlineStr"/>
+      <c r="AJ22" s="0" t="inlineStr"/>
+      <c r="AK22" s="0" t="inlineStr"/>
+      <c r="AL22" s="0" t="inlineStr"/>
+      <c r="AM22" s="0" t="inlineStr"/>
+      <c r="AN22" s="0" t="inlineStr"/>
     </row>
     <row r="23" ht="16.5" customHeight="1" s="1">
       <c r="A23" s="9" t="n">
@@ -3440,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K23" s="18" t="n">
         <v>23</v>
@@ -3452,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O23" s="19" t="n">
         <v>24</v>
@@ -3464,51 +3580,55 @@
         <v>2</v>
       </c>
       <c r="R23" s="19" t="n">
-        <v>2.33332</v>
+        <v>2.66665</v>
       </c>
       <c r="S23" s="25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="T23" s="25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U23" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" s="25" t="n">
-        <v>7.99999</v>
+        <v>9.666650000000001</v>
       </c>
       <c r="W23" s="18" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="X23" s="18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y23" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="18" t="n">
-        <v>3.99996</v>
+        <v>8.999980000000001</v>
       </c>
       <c r="AB23" s="28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC23" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="AD23" s="28" t="n"/>
+      <c r="AD23" s="28" t="n">
+        <v>5</v>
+      </c>
       <c r="AE23" s="29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AG23" s="0" t="inlineStr"/>
+      <c r="AH23" s="0" t="inlineStr"/>
+      <c r="AI23" s="0" t="inlineStr"/>
+      <c r="AJ23" s="0" t="inlineStr"/>
+      <c r="AK23" s="0" t="inlineStr"/>
+      <c r="AL23" s="0" t="inlineStr"/>
+      <c r="AM23" s="0" t="inlineStr"/>
+      <c r="AN23" s="0" t="inlineStr"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" s="1">
       <c r="A24" s="9" t="n">
@@ -3531,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K24" s="18" t="n">
         <v>23</v>
@@ -3543,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O24" s="19" t="n">
         <v>24</v>
@@ -3555,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="R24" s="19" t="n">
-        <v>3.33332</v>
+        <v>3.66665</v>
       </c>
       <c r="S24" s="25" t="n">
         <v>19.5</v>
@@ -3567,39 +3687,43 @@
         <v>1</v>
       </c>
       <c r="V24" s="25" t="n">
-        <v>7.99999</v>
+        <v>10.1666</v>
       </c>
       <c r="W24" s="18" t="n">
         <v>20</v>
       </c>
       <c r="X24" s="18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y24" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="18" t="n">
-        <v>4.33329</v>
+        <v>9.999980000000001</v>
       </c>
       <c r="AB24" s="28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC24" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="AD24" s="28" t="n"/>
+      <c r="AD24" s="28" t="n">
+        <v>5</v>
+      </c>
       <c r="AE24" s="29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF24" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AG24" s="0" t="inlineStr"/>
+      <c r="AH24" s="0" t="inlineStr"/>
+      <c r="AI24" s="0" t="inlineStr"/>
+      <c r="AJ24" s="0" t="inlineStr"/>
+      <c r="AK24" s="0" t="inlineStr"/>
+      <c r="AL24" s="0" t="inlineStr"/>
+      <c r="AM24" s="0" t="inlineStr"/>
+      <c r="AN24" s="0" t="inlineStr"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" s="1">
       <c r="A25" s="9" t="n">
@@ -3620,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K25" s="20" t="n">
         <v>23</v>
@@ -3632,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O25" s="21" t="n">
         <v>24</v>
@@ -3644,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="R25" s="19" t="n">
-        <v>4.33332</v>
+        <v>4.66665</v>
       </c>
       <c r="S25" s="25" t="n">
         <v>20</v>
@@ -3656,39 +3780,43 @@
         <v>1</v>
       </c>
       <c r="V25" s="25" t="n">
-        <v>7.99999</v>
+        <v>10.6666</v>
       </c>
       <c r="W25" s="18" t="n">
         <v>20.5</v>
       </c>
       <c r="X25" s="18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y25" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="18" t="n">
-        <v>4.66662</v>
+        <v>11</v>
       </c>
       <c r="AB25" s="28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC25" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="AD25" s="28" t="n"/>
+      <c r="AD25" s="28" t="n">
+        <v>5</v>
+      </c>
       <c r="AE25" s="29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AG25" s="0" t="inlineStr"/>
+      <c r="AH25" s="0" t="inlineStr"/>
+      <c r="AI25" s="0" t="inlineStr"/>
+      <c r="AJ25" s="0" t="inlineStr"/>
+      <c r="AK25" s="0" t="inlineStr"/>
+      <c r="AL25" s="0" t="inlineStr"/>
+      <c r="AM25" s="0" t="inlineStr"/>
+      <c r="AN25" s="0" t="inlineStr"/>
     </row>
     <row r="26" ht="16.5" customHeight="1" s="1">
       <c r="A26" s="9" t="n">
@@ -3713,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K26" s="20" t="n">
         <v>23</v>
@@ -3725,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O26" s="19" t="n">
         <v>24</v>
@@ -3737,10 +3865,10 @@
         <v>2</v>
       </c>
       <c r="R26" s="19" t="n">
-        <v>155.333</v>
+        <v>155.667</v>
       </c>
       <c r="S26" s="26" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="T26" s="26" t="n">
         <v>20</v>
@@ -3749,37 +3877,41 @@
         <v>1</v>
       </c>
       <c r="V26" s="25" t="n">
-        <v>7.99999</v>
+        <v>11.1666</v>
       </c>
       <c r="W26" s="20" t="n">
         <v>21</v>
       </c>
       <c r="X26" s="20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y26" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="18" t="n">
-        <v>4.99995</v>
+        <v>12</v>
       </c>
       <c r="AB26" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="AC26" s="30" t="n"/>
-      <c r="AD26" s="30" t="n"/>
+      <c r="AD26" s="30" t="inlineStr"/>
       <c r="AE26" s="31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AG26" s="0" t="inlineStr"/>
+      <c r="AH26" s="0" t="inlineStr"/>
+      <c r="AI26" s="0" t="inlineStr"/>
+      <c r="AJ26" s="0" t="inlineStr"/>
+      <c r="AK26" s="0" t="inlineStr"/>
+      <c r="AL26" s="0" t="inlineStr"/>
+      <c r="AM26" s="0" t="inlineStr"/>
+      <c r="AN26" s="0" t="inlineStr"/>
     </row>
     <row r="27" ht="16.5" customHeight="1" s="1">
       <c r="A27" s="9" t="n">
@@ -3804,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="10" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="K27" s="18" t="n">
         <v>23</v>
@@ -3816,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O27" s="19" t="n">
         <v>24</v>
@@ -3828,10 +3960,10 @@
         <v>2</v>
       </c>
       <c r="R27" s="19" t="n">
-        <v>155.333</v>
+        <v>155.667</v>
       </c>
       <c r="S27" s="26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T27" s="25" t="n">
         <v>20</v>
@@ -3840,33 +3972,39 @@
         <v>1</v>
       </c>
       <c r="V27" s="25" t="n">
-        <v>7.99999</v>
+        <v>11.6666</v>
       </c>
       <c r="W27" s="20" t="n">
         <v>21.5</v>
       </c>
       <c r="X27" s="18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y27" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z27" s="18" t="n">
-        <v>105.333</v>
+        <v>113</v>
       </c>
       <c r="AB27" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC27" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="AD27" s="30" t="n"/>
+      <c r="AC27" s="30" t="inlineStr"/>
+      <c r="AD27" s="30" t="inlineStr"/>
       <c r="AE27" s="31" t="n">
         <v>1</v>
       </c>
       <c r="AF27" s="31" t="n">
         <v>2</v>
       </c>
+      <c r="AG27" s="0" t="inlineStr"/>
+      <c r="AH27" s="0" t="inlineStr"/>
+      <c r="AI27" s="0" t="inlineStr"/>
+      <c r="AJ27" s="0" t="inlineStr"/>
+      <c r="AK27" s="0" t="inlineStr"/>
+      <c r="AL27" s="0" t="inlineStr"/>
+      <c r="AM27" s="0" t="inlineStr"/>
+      <c r="AN27" s="0" t="inlineStr"/>
     </row>
     <row r="28" ht="16.5" customHeight="1" s="1">
       <c r="A28" s="9" t="n">
@@ -3891,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="10" t="n">
-        <v>209.333</v>
+        <v>209.667</v>
       </c>
       <c r="K28" s="18" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="L28" s="18" t="n">
         <v>16</v>
@@ -3903,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="18" t="n">
-        <v>251</v>
+        <v>251.999</v>
       </c>
       <c r="O28" s="21" t="n">
         <v>24</v>
@@ -3915,10 +4053,10 @@
         <v>2</v>
       </c>
       <c r="R28" s="19" t="n">
-        <v>155.333</v>
+        <v>155.667</v>
       </c>
       <c r="S28" s="25" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="T28" s="25" t="n">
         <v>20</v>
@@ -3927,31 +4065,37 @@
         <v>1</v>
       </c>
       <c r="V28" s="25" t="n">
-        <v>8.49999</v>
+        <v>12.1666</v>
       </c>
       <c r="W28" s="18" t="n">
         <v>22</v>
       </c>
       <c r="X28" s="18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y28" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="18" t="n">
-        <v>105.666</v>
+        <v>113</v>
       </c>
       <c r="AB28" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="AD28" s="30" t="n"/>
+      <c r="AC28" s="30" t="inlineStr"/>
+      <c r="AD28" s="30" t="inlineStr"/>
       <c r="AE28" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF28" s="31" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="AF28" s="31" t="inlineStr"/>
+      <c r="AG28" s="0" t="inlineStr"/>
+      <c r="AH28" s="0" t="inlineStr"/>
+      <c r="AI28" s="0" t="inlineStr"/>
+      <c r="AJ28" s="0" t="inlineStr"/>
+      <c r="AK28" s="0" t="inlineStr"/>
+      <c r="AL28" s="0" t="inlineStr"/>
+      <c r="AM28" s="0" t="inlineStr"/>
+      <c r="AN28" s="0" t="inlineStr"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" s="1">
       <c r="A29" s="9" t="n">
@@ -3980,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="10" t="n">
-        <v>209.333</v>
+        <v>209.667</v>
       </c>
       <c r="K29" s="20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L29" s="20" t="n">
         <v>16</v>
@@ -3992,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="18" t="n">
-        <v>376.333</v>
+        <v>376.999</v>
       </c>
       <c r="O29" s="19" t="n">
         <v>24</v>
@@ -4004,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="R29" s="19" t="n">
-        <v>155.333</v>
+        <v>155.667</v>
       </c>
       <c r="S29" s="25" t="n">
         <v>20</v>
@@ -4016,27 +4160,33 @@
         <v>1</v>
       </c>
       <c r="V29" s="25" t="n">
-        <v>209</v>
+        <v>212.667</v>
       </c>
       <c r="W29" s="18" t="n">
         <v>22</v>
       </c>
       <c r="X29" s="18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y29" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="18" t="n">
-        <v>105.666</v>
-      </c>
-      <c r="AB29" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="30" t="n"/>
-      <c r="AD29" s="30" t="n"/>
-      <c r="AE29" s="31" t="n"/>
-      <c r="AF29" s="31" t="n"/>
+        <v>113</v>
+      </c>
+      <c r="AB29" s="30" t="inlineStr"/>
+      <c r="AC29" s="30" t="inlineStr"/>
+      <c r="AD29" s="30" t="inlineStr"/>
+      <c r="AE29" s="31" t="inlineStr"/>
+      <c r="AF29" s="31" t="inlineStr"/>
+      <c r="AG29" s="0" t="inlineStr"/>
+      <c r="AH29" s="0" t="inlineStr"/>
+      <c r="AI29" s="0" t="inlineStr"/>
+      <c r="AJ29" s="0" t="inlineStr"/>
+      <c r="AK29" s="0" t="inlineStr"/>
+      <c r="AL29" s="0" t="inlineStr"/>
+      <c r="AM29" s="0" t="inlineStr"/>
+      <c r="AN29" s="0" t="inlineStr"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="1">
       <c r="A30" s="9" t="inlineStr">
@@ -4218,7 +4368,7 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:22:59</t>
+          <t>2024-11-29 22:50:10</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
@@ -4234,7 +4384,7 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:00</t>
+          <t>2024-11-29 22:50:11</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
@@ -4250,7 +4400,7 @@
       </c>
       <c r="M34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:01</t>
+          <t>2024-11-29 22:50:12</t>
         </is>
       </c>
       <c r="N34" s="0" t="inlineStr">
@@ -4266,7 +4416,7 @@
       </c>
       <c r="Q34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:02</t>
+          <t>2024-11-29 22:50:13</t>
         </is>
       </c>
       <c r="R34" s="0" t="inlineStr">
@@ -4282,7 +4432,7 @@
       </c>
       <c r="U34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:00</t>
+          <t>2024-11-29 22:50:11</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4450,7 @@
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:00</t>
+          <t>2024-11-29 22:50:11</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
@@ -4316,7 +4466,7 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:02</t>
+          <t>2024-11-29 22:50:13</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
@@ -4332,7 +4482,7 @@
       </c>
       <c r="M35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:02</t>
+          <t>2024-11-29 22:50:13</t>
         </is>
       </c>
       <c r="N35" s="0" t="inlineStr">
@@ -4348,23 +4498,23 @@
       </c>
       <c r="Q35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:03</t>
+          <t>2024-11-29 22:50:14</t>
         </is>
       </c>
       <c r="R35" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>update temperature</t>
         </is>
       </c>
       <c r="S35" s="0" t="n">
         <v>0.33333</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>0</v>
+        <v>0.99999</v>
       </c>
       <c r="U35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:01</t>
+          <t>2024-11-29 22:50:14</t>
         </is>
       </c>
     </row>
@@ -4378,109 +4528,109 @@
         <v>0</v>
       </c>
       <c r="D36" s="0" t="n">
+        <v>1.33332</v>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:13</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1.33332</v>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:14</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="0" t="n">
         <v>0.99999</v>
       </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:01</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:16</t>
+        </is>
+      </c>
+      <c r="N36" s="0" t="inlineStr">
         <is>
           <t>removed from serve queue</t>
         </is>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="I36" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:02</t>
-        </is>
-      </c>
-      <c r="J36" s="0" t="inlineStr">
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>1.33332</v>
+      </c>
+      <c r="Q36" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:18</t>
+        </is>
+      </c>
+      <c r="R36" s="0" t="inlineStr">
         <is>
           <t>removed from serve queue</t>
         </is>
       </c>
-      <c r="K36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="M36" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:03</t>
-        </is>
-      </c>
-      <c r="N36" s="0" t="inlineStr">
-        <is>
-          <t>removed from serve queue</t>
-        </is>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="Q36" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:04</t>
-        </is>
-      </c>
-      <c r="R36" s="0" t="inlineStr">
-        <is>
-          <t>update temperature</t>
-        </is>
-      </c>
       <c r="S36" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>0.33333</v>
+        <v>1.33332</v>
       </c>
       <c r="U36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:03</t>
+          <t>2024-11-29 22:50:15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>update mode</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.99999</v>
+        <v>1.33332</v>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:03</t>
+          <t>2024-11-29 22:50:15</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>turn off</t>
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.99999</v>
+        <v>1.33332</v>
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:04</t>
+          <t>2024-11-29 22:50:16</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
@@ -4492,125 +4642,125 @@
         <v>0.33333</v>
       </c>
       <c r="L37" s="0" t="n">
+        <v>0.99999</v>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:18</t>
+        </is>
+      </c>
+      <c r="N37" s="0" t="inlineStr">
+        <is>
+          <t>update temperature</t>
+        </is>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>1.33332</v>
+      </c>
+      <c r="Q37" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:19</t>
+        </is>
+      </c>
+      <c r="R37" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="S37" s="0" t="n">
         <v>0.33333</v>
       </c>
-      <c r="M37" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:06</t>
-        </is>
-      </c>
-      <c r="N37" s="0" t="inlineStr">
-        <is>
-          <t>add to serve queue</t>
-        </is>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="Q37" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:06</t>
-        </is>
-      </c>
-      <c r="R37" s="0" t="inlineStr">
-        <is>
-          <t>removed from serve queue</t>
-        </is>
-      </c>
-      <c r="S37" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T37" s="0" t="n">
-        <v>0.66666</v>
+        <v>1.33332</v>
       </c>
       <c r="U37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:03</t>
+          <t>2024-11-29 22:50:16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>update mode</t>
+          <t>add to serve queue</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
         <v>0.33333</v>
       </c>
       <c r="D38" s="0" t="n">
+        <v>1.33332</v>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:15</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>turn on</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>126.333</v>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:17</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="0" t="n">
         <v>0.99999</v>
       </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:04</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>turn off</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="I38" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:05</t>
-        </is>
-      </c>
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>removed from serve queue</t>
-        </is>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>0.33333</v>
-      </c>
       <c r="M38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:06</t>
+          <t>2024-11-29 22:50:18</t>
         </is>
       </c>
       <c r="N38" s="0" t="inlineStr">
         <is>
-          <t>removed from serve queue</t>
+          <t>update mode</t>
         </is>
       </c>
       <c r="O38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.66666</v>
+        <v>1.33332</v>
       </c>
       <c r="Q38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:07</t>
+          <t>2024-11-29 22:50:19</t>
         </is>
       </c>
       <c r="R38" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>update mode</t>
         </is>
       </c>
       <c r="S38" s="0" t="n">
         <v>0.33333</v>
       </c>
       <c r="T38" s="0" t="n">
-        <v>0.66666</v>
+        <v>1.33332</v>
       </c>
       <c r="U38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:06</t>
+          <t>2024-11-29 22:50:17</t>
         </is>
       </c>
     </row>
@@ -4624,27 +4774,27 @@
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>4.33332</v>
+        <v>4.66665</v>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:08</t>
+          <t>2024-11-29 22:50:19</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>turn on</t>
+          <t>add to serve queue</t>
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0</v>
+        <v>0.33333</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:06</t>
+          <t>2024-11-29 22:50:18</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
@@ -4656,27 +4806,27 @@
         <v>0.33333</v>
       </c>
       <c r="L39" s="0" t="n">
+        <v>0.99999</v>
+      </c>
+      <c r="M39" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:22</t>
+        </is>
+      </c>
+      <c r="N39" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="O39" s="0" t="n">
         <v>0.33333</v>
       </c>
-      <c r="M39" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:07</t>
-        </is>
-      </c>
-      <c r="N39" s="0" t="inlineStr">
-        <is>
-          <t>update temperature</t>
-        </is>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" s="0" t="n">
-        <v>0.66666</v>
+        <v>1.33332</v>
       </c>
       <c r="Q39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:08</t>
+          <t>2024-11-29 22:50:19</t>
         </is>
       </c>
       <c r="R39" s="0" t="inlineStr">
@@ -4685,14 +4835,14 @@
         </is>
       </c>
       <c r="S39" s="0" t="n">
-        <v>0.33333</v>
+        <v>1</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>0.66666</v>
+        <v>5.66665</v>
       </c>
       <c r="U39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:06</t>
+          <t>2024-11-29 22:50:22</t>
         </is>
       </c>
     </row>
@@ -4706,11 +4856,11 @@
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>9.333320000000001</v>
+        <v>9.666650000000001</v>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:13</t>
+          <t>2024-11-29 22:50:24</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
@@ -4722,11 +4872,11 @@
         <v>0</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:06</t>
+          <t>2024-11-29 22:50:19</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
@@ -4738,27 +4888,27 @@
         <v>0</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="M40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:07</t>
+          <t>2024-11-29 22:50:22</t>
         </is>
       </c>
       <c r="N40" s="0" t="inlineStr">
         <is>
-          <t>update mode</t>
+          <t>removed from serve queue</t>
         </is>
       </c>
       <c r="O40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.66666</v>
+        <v>8.666650000000001</v>
       </c>
       <c r="Q40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:08</t>
+          <t>2024-11-29 22:50:27</t>
         </is>
       </c>
       <c r="R40" s="0" t="inlineStr">
@@ -4767,14 +4917,14 @@
         </is>
       </c>
       <c r="S40" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="T40" s="0" t="n">
-        <v>0.99999</v>
+        <v>5.66665</v>
       </c>
       <c r="U40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:06</t>
+          <t>2024-11-29 22:50:22</t>
         </is>
       </c>
     </row>
@@ -4788,27 +4938,27 @@
         <v>0</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>109.333</v>
+        <v>109.667</v>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:17</t>
+          <t>2024-11-29 22:50:28</t>
         </is>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>update temperature</t>
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:07</t>
+          <t>2024-11-29 22:50:21</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
@@ -4820,11 +4970,11 @@
         <v>0.33333</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.99999</v>
       </c>
       <c r="M41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:11</t>
+          <t>2024-11-29 22:50:23</t>
         </is>
       </c>
       <c r="N41" s="0" t="inlineStr">
@@ -4833,276 +4983,276 @@
         </is>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.33333</v>
+        <v>1</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>0.66666</v>
+        <v>8.666650000000001</v>
       </c>
       <c r="Q41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:08</t>
+          <t>2024-11-29 22:50:28</t>
         </is>
       </c>
       <c r="R41" s="0" t="inlineStr">
         <is>
-          <t>update mode</t>
+          <t>add to serve queue</t>
         </is>
       </c>
       <c r="S41" s="0" t="n">
         <v>0.33333</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>2.33331</v>
+        <v>5.66665</v>
       </c>
       <c r="U41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:11</t>
+          <t>2024-11-29 22:50:23</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="0" t="inlineStr">
         <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>109.667</v>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:28</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
           <t>add to serve queue</t>
         </is>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="G42" s="0" t="n">
         <v>0.33333</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>109.333</v>
-      </c>
-      <c r="E42" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:22</t>
-        </is>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>removed from serve queue</t>
-        </is>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H42" s="0" t="n">
-        <v>126</v>
+        <v>126.333</v>
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:08</t>
+          <t>2024-11-29 22:50:22</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
         <is>
-          <t>removed from serve queue</t>
+          <t>update temperature</t>
         </is>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0</v>
+        <v>0.33333</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>0.99999</v>
       </c>
       <c r="M42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:12</t>
+          <t>2024-11-29 22:50:24</t>
         </is>
       </c>
       <c r="N42" s="0" t="inlineStr">
         <is>
+          <t>update temperature</t>
+        </is>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>8.666650000000001</v>
+      </c>
+      <c r="Q42" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:28</t>
+        </is>
+      </c>
+      <c r="R42" s="0" t="inlineStr">
+        <is>
           <t>removed from serve queue</t>
         </is>
       </c>
-      <c r="O42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="0" t="n">
-        <v>7.99999</v>
-      </c>
-      <c r="Q42" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:16</t>
-        </is>
-      </c>
-      <c r="R42" s="0" t="inlineStr">
-        <is>
-          <t>removed from serve queue</t>
-        </is>
-      </c>
       <c r="S42" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>2.33331</v>
+        <v>5.66665</v>
       </c>
       <c r="U42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:11</t>
+          <t>2024-11-29 22:50:23</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="0" t="inlineStr">
         <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>109.667</v>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:34</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
           <t>removed from serve queue</t>
         </is>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>109.333</v>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:22</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>update temperature</t>
-        </is>
-      </c>
       <c r="G43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>126</v>
+        <v>126.999</v>
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:10</t>
+          <t>2024-11-29 22:50:23</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>update temperature</t>
+          <t>update mode</t>
         </is>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0</v>
+        <v>0.33333</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>0.99999</v>
       </c>
       <c r="M43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:13</t>
+          <t>2024-11-29 22:50:24</t>
         </is>
       </c>
       <c r="N43" s="0" t="inlineStr">
         <is>
+          <t>update mode</t>
+        </is>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>8.666650000000001</v>
+      </c>
+      <c r="Q43" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:50:28</t>
+        </is>
+      </c>
+      <c r="R43" s="0" t="inlineStr">
+        <is>
           <t>update temperature</t>
         </is>
       </c>
-      <c r="O43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>7.99999</v>
-      </c>
-      <c r="Q43" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:17</t>
-        </is>
-      </c>
-      <c r="R43" s="0" t="inlineStr">
-        <is>
-          <t>add to serve queue</t>
-        </is>
-      </c>
       <c r="S43" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>2.33331</v>
+        <v>5.66665</v>
       </c>
       <c r="U43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:11</t>
+          <t>2024-11-29 22:50:25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>turn off</t>
+          <t>removed from serve queue</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>109.333</v>
+        <v>107.333</v>
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:23</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+          <t>2024-11-29 22:49:26</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
         <is>
           <t>add to serve queue</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="0" t="n">
         <v>0.33333</v>
       </c>
-      <c r="H44" t="n">
-        <v>126</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:11</t>
+      <c r="H44" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:49:32</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>2.33331</v>
+      </c>
+      <c r="M44" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:07</t>
+        </is>
+      </c>
+      <c r="N44" s="0" t="inlineStr">
+        <is>
           <t>update mode</t>
         </is>
       </c>
-      <c r="K44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:23:13</t>
-        </is>
-      </c>
-      <c r="N44" s="0" t="inlineStr">
-        <is>
-          <t>update mode</t>
-        </is>
-      </c>
       <c r="O44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>7.99999</v>
+        <v>5.66666</v>
       </c>
       <c r="Q44" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:17</t>
+          <t>2024-11-29 22:49:26</t>
         </is>
       </c>
       <c r="R44" s="0" t="inlineStr">
         <is>
-          <t>removed from serve queue</t>
+          <t>add to serve queue</t>
         </is>
       </c>
       <c r="S44" s="0" t="n">
-        <v>0</v>
+        <v>0.33333</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>2.33331</v>
+        <v>3.99999</v>
       </c>
       <c r="U44" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:23:11</t>
+          <t>2024-11-29 22:49:23</t>
         </is>
       </c>
     </row>
@@ -5116,59 +5266,75 @@
         <v>0</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>106.667</v>
+        <v>107.666</v>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 21:57:33</t>
+          <t>2024-11-29 22:49:32</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>251.333</v>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:49:33</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>update mode</t>
         </is>
       </c>
       <c r="K45" s="0" t="n">
         <v>0.33333</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>2.33331</v>
+        <v>2.66664</v>
       </c>
       <c r="M45" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 21:57:32</t>
+          <t>2024-11-29 22:45:09</t>
         </is>
       </c>
       <c r="N45" s="0" t="inlineStr">
         <is>
-          <t>update temperature</t>
+          <t>turn off</t>
         </is>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>5.33333</v>
+        <v>6.66666</v>
       </c>
       <c r="Q45" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 21:57:33</t>
+          <t>2024-11-29 22:49:33</t>
         </is>
       </c>
       <c r="R45" s="0" t="inlineStr">
         <is>
-          <t>update mode</t>
+          <t>removed from serve queue</t>
         </is>
       </c>
       <c r="S45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>3.99999</v>
+        <v>5.33332</v>
       </c>
       <c r="U45" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 21:57:30</t>
+          <t>2024-11-29 22:49:25</t>
         </is>
       </c>
     </row>
@@ -5179,62 +5345,456 @@
         </is>
       </c>
       <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>107.666</v>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:49:32</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>0.33333</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="E46" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 21:57:39</t>
+      <c r="H46" s="0" t="n">
+        <v>126.999</v>
+      </c>
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:08</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>turn off</t>
+          <t>add to serve queue</t>
         </is>
       </c>
       <c r="K46" s="0" t="n">
         <v>0.33333</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>3.99996</v>
+        <v>2.99997</v>
       </c>
       <c r="M46" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 21:57:37</t>
+          <t>2024-11-29 22:45:09</t>
         </is>
       </c>
       <c r="N46" s="0" t="inlineStr">
         <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:11</t>
+        </is>
+      </c>
+      <c r="R46" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>5.33332</v>
+      </c>
+      <c r="U46" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:49:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>117.332</v>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:08</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>253.331</v>
+      </c>
+      <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:11</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>2.99997</v>
+      </c>
+      <c r="M47" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:09</t>
+        </is>
+      </c>
+      <c r="N47" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>15.3332</v>
+      </c>
+      <c r="Q47" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:13</t>
+        </is>
+      </c>
+      <c r="R47" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>4.66662</v>
+      </c>
+      <c r="U47" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>118.664</v>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:10</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>253.331</v>
+      </c>
+      <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:13</t>
+        </is>
+      </c>
+      <c r="J48" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>4.33329</v>
+      </c>
+      <c r="M48" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:11</t>
+        </is>
+      </c>
+      <c r="N48" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>21.3332</v>
+      </c>
+      <c r="Q48" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:15</t>
+        </is>
+      </c>
+      <c r="R48" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>5.66661</v>
+      </c>
+      <c r="U48" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>125.663</v>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:13</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>253.997</v>
+      </c>
+      <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:15</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>10.3333</v>
+      </c>
+      <c r="M49" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:13</t>
+        </is>
+      </c>
+      <c r="N49" s="0" t="inlineStr">
+        <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>21.9998</v>
+      </c>
+      <c r="Q49" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:17</t>
+        </is>
+      </c>
+      <c r="R49" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>6.33327</v>
+      </c>
+      <c r="U49" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>126.995</v>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:15</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>253.997</v>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:17</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>10.3333</v>
+      </c>
+      <c r="M50" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:14</t>
+        </is>
+      </c>
+      <c r="N50" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>222.333</v>
+      </c>
+      <c r="Q50" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:17</t>
+        </is>
+      </c>
+      <c r="R50" s="0" t="inlineStr">
+        <is>
+          <t>update temperature</t>
+        </is>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>6.33327</v>
+      </c>
+      <c r="U50" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>126.995</v>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:16</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
+        <is>
+          <t>add to serve queue</t>
+        </is>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>161.333</v>
+      </c>
+      <c r="M51" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:15</t>
+        </is>
+      </c>
+      <c r="R51" s="0" t="inlineStr">
+        <is>
           <t>update mode</t>
         </is>
       </c>
-      <c r="O46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>5.33333</v>
-      </c>
-      <c r="Q46" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 21:57:33</t>
-        </is>
-      </c>
-      <c r="R46" s="0" t="inlineStr">
-        <is>
-          <t>add to serve queue</t>
-        </is>
-      </c>
-      <c r="S46" s="0" t="n">
+      <c r="S51" s="0" t="n">
         <v>0.33333</v>
       </c>
-      <c r="T46" s="0" t="n">
-        <v>3.99999</v>
-      </c>
-      <c r="U46" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 21:57:30</t>
+      <c r="T51" s="0" t="n">
+        <v>6.33327</v>
+      </c>
+      <c r="U51" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-29 22:45:07</t>
         </is>
       </c>
     </row>

--- a/server_test/out.xlsx
+++ b/server_test/out.xlsx
@@ -1728,7 +1728,7 @@
       <c r="E4" s="7" t="n"/>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="10" t="n">
         <v>16</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="G5" s="10" t="n">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="H5" s="10" t="n">
         <v>16</v>
@@ -1916,7 +1916,7 @@
       <c r="E6" s="7" t="n"/>
       <c r="F6" s="7" t="n"/>
       <c r="G6" s="10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="10" t="n">
         <v>18</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="F7" s="7" t="n"/>
       <c r="G7" s="10" t="n">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="H7" s="10" t="n">
         <v>18</v>
@@ -2108,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="10" t="n">
         <v>18</v>
@@ -2205,7 +2205,7 @@
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="10" t="n">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="H9" s="10" t="n">
         <v>18</v>
@@ -2302,7 +2302,7 @@
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="10" t="n">
         <v>18</v>
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="G11" s="10" t="n">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="H11" s="10" t="n">
         <v>18</v>
@@ -2494,7 +2494,7 @@
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" s="10" t="n">
         <v>18</v>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="10" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="H13" s="10" t="n">
         <v>18</v>
@@ -2686,7 +2686,7 @@
       <c r="E14" s="7" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>22</v>
@@ -2781,7 +2781,7 @@
       <c r="E15" s="7" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="10" t="n">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="H15" s="10" t="n">
         <v>22</v>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="G16" s="10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="H16" s="10" t="n">
         <v>22</v>
@@ -2971,7 +2971,7 @@
       <c r="E17" s="7" t="n"/>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="11" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="H17" s="11" t="n">
         <v>22</v>
@@ -3072,7 +3072,7 @@
       <c r="E18" s="7" t="n"/>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="10" t="n">
         <v>22</v>
@@ -3096,7 +3096,7 @@
         <v>126.999</v>
       </c>
       <c r="O18" s="19" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="P18" s="19" t="n">
         <v>16</v>
@@ -3167,7 +3167,7 @@
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H19" s="10" t="n">
         <v>22</v>
@@ -3262,7 +3262,7 @@
       <c r="E20" s="7" t="n"/>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" s="10" t="n">
         <v>22</v>
@@ -3355,7 +3355,7 @@
       <c r="E21" s="7" t="n"/>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" s="10" t="n">
         <v>22</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H22" s="10" t="n">
         <v>22</v>
@@ -3547,7 +3547,7 @@
       <c r="E23" s="7" t="n"/>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H23" s="10" t="n">
         <v>16</v>
@@ -3642,7 +3642,7 @@
         <v>25</v>
       </c>
       <c r="G24" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" s="10" t="n">
         <v>16</v>
@@ -3735,7 +3735,7 @@
       <c r="E25" s="7" t="n"/>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25" s="10" t="n">
         <v>16</v>
@@ -3832,7 +3832,7 @@
       <c r="E26" s="7" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H26" s="10" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27" s="11" t="n">
         <v>16</v>
@@ -4020,7 +4020,7 @@
       <c r="E28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H28" s="10" t="n">
         <v>16</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H29" s="10" t="n">
         <v>16</v>
@@ -4194,11 +4194,31 @@
           <t>费用小计</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>209.667</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>376.999</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>155.667</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>212.667</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
       <c r="G30" s="10" t="n"/>
       <c r="H30" s="10" t="n"/>
       <c r="I30" s="10" t="n"/>
@@ -4368,7 +4388,7 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:10</t>
+          <t>2024-11-30 21:20:50</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
@@ -4384,7 +4404,7 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:11</t>
+          <t>2024-11-30 21:20:51</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
@@ -4400,7 +4420,7 @@
       </c>
       <c r="M34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:12</t>
+          <t>2024-11-30 21:20:52</t>
         </is>
       </c>
       <c r="N34" s="0" t="inlineStr">
@@ -4416,7 +4436,7 @@
       </c>
       <c r="Q34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:13</t>
+          <t>2024-11-30 21:20:53</t>
         </is>
       </c>
       <c r="R34" s="0" t="inlineStr">
@@ -4432,7 +4452,7 @@
       </c>
       <c r="U34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:11</t>
+          <t>2024-11-30 21:20:51</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4470,7 @@
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:11</t>
+          <t>2024-11-30 21:20:51</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
@@ -4466,7 +4486,7 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:13</t>
+          <t>2024-11-30 21:20:53</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
@@ -4482,7 +4502,7 @@
       </c>
       <c r="M35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:13</t>
+          <t>2024-11-30 21:20:53</t>
         </is>
       </c>
       <c r="N35" s="0" t="inlineStr">
@@ -4498,7 +4518,7 @@
       </c>
       <c r="Q35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:14</t>
+          <t>2024-11-30 21:20:54</t>
         </is>
       </c>
       <c r="R35" s="0" t="inlineStr">
@@ -4514,7 +4534,7 @@
       </c>
       <c r="U35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:14</t>
+          <t>2024-11-30 21:20:54</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4552,7 @@
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:13</t>
+          <t>2024-11-30 21:20:53</t>
         </is>
       </c>
       <c r="F36" s="0" t="inlineStr">
@@ -4548,7 +4568,7 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:14</t>
+          <t>2024-11-30 21:20:54</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
@@ -4564,7 +4584,7 @@
       </c>
       <c r="M36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:16</t>
+          <t>2024-11-30 21:20:56</t>
         </is>
       </c>
       <c r="N36" s="0" t="inlineStr">
@@ -4580,7 +4600,7 @@
       </c>
       <c r="Q36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:18</t>
+          <t>2024-11-30 21:20:58</t>
         </is>
       </c>
       <c r="R36" s="0" t="inlineStr">
@@ -4596,7 +4616,7 @@
       </c>
       <c r="U36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:15</t>
+          <t>2024-11-30 21:20:55</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4634,7 @@
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:15</t>
+          <t>2024-11-30 21:20:55</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
@@ -4630,7 +4650,7 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:16</t>
+          <t>2024-11-30 21:20:56</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
@@ -4646,7 +4666,7 @@
       </c>
       <c r="M37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:18</t>
+          <t>2024-11-30 21:20:58</t>
         </is>
       </c>
       <c r="N37" s="0" t="inlineStr">
@@ -4662,7 +4682,7 @@
       </c>
       <c r="Q37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:19</t>
+          <t>2024-11-30 21:20:59</t>
         </is>
       </c>
       <c r="R37" s="0" t="inlineStr">
@@ -4678,7 +4698,7 @@
       </c>
       <c r="U37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:16</t>
+          <t>2024-11-30 21:20:56</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4716,7 @@
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:15</t>
+          <t>2024-11-30 21:20:55</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
@@ -4712,7 +4732,7 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:17</t>
+          <t>2024-11-30 21:20:57</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
@@ -4728,7 +4748,7 @@
       </c>
       <c r="M38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:18</t>
+          <t>2024-11-30 21:20:58</t>
         </is>
       </c>
       <c r="N38" s="0" t="inlineStr">
@@ -4744,7 +4764,7 @@
       </c>
       <c r="Q38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:19</t>
+          <t>2024-11-30 21:20:59</t>
         </is>
       </c>
       <c r="R38" s="0" t="inlineStr">
@@ -4760,7 +4780,7 @@
       </c>
       <c r="U38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:17</t>
+          <t>2024-11-30 21:20:57</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4798,7 @@
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:19</t>
+          <t>2024-11-30 21:20:59</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
@@ -4794,7 +4814,7 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:18</t>
+          <t>2024-11-30 21:20:58</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
@@ -4810,7 +4830,7 @@
       </c>
       <c r="M39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:22</t>
+          <t>2024-11-30 21:21:02</t>
         </is>
       </c>
       <c r="N39" s="0" t="inlineStr">
@@ -4826,7 +4846,7 @@
       </c>
       <c r="Q39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:19</t>
+          <t>2024-11-30 21:20:59</t>
         </is>
       </c>
       <c r="R39" s="0" t="inlineStr">
@@ -4842,7 +4862,7 @@
       </c>
       <c r="U39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:22</t>
+          <t>2024-11-30 21:21:02</t>
         </is>
       </c>
     </row>
@@ -4860,7 +4880,7 @@
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:24</t>
+          <t>2024-11-30 21:21:04</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
@@ -4876,7 +4896,7 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:19</t>
+          <t>2024-11-30 21:20:59</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
@@ -4892,7 +4912,7 @@
       </c>
       <c r="M40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:22</t>
+          <t>2024-11-30 21:21:02</t>
         </is>
       </c>
       <c r="N40" s="0" t="inlineStr">
@@ -4908,7 +4928,7 @@
       </c>
       <c r="Q40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:27</t>
+          <t>2024-11-30 21:21:07</t>
         </is>
       </c>
       <c r="R40" s="0" t="inlineStr">
@@ -4924,7 +4944,7 @@
       </c>
       <c r="U40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:22</t>
+          <t>2024-11-30 21:21:02</t>
         </is>
       </c>
     </row>
@@ -4942,7 +4962,7 @@
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:28</t>
+          <t>2024-11-30 21:21:08</t>
         </is>
       </c>
       <c r="F41" s="0" t="inlineStr">
@@ -4958,7 +4978,7 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:21</t>
+          <t>2024-11-30 21:21:01</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
@@ -4974,7 +4994,7 @@
       </c>
       <c r="M41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:23</t>
+          <t>2024-11-30 21:21:03</t>
         </is>
       </c>
       <c r="N41" s="0" t="inlineStr">
@@ -4990,7 +5010,7 @@
       </c>
       <c r="Q41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:28</t>
+          <t>2024-11-30 21:21:08</t>
         </is>
       </c>
       <c r="R41" s="0" t="inlineStr">
@@ -5006,7 +5026,7 @@
       </c>
       <c r="U41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:23</t>
+          <t>2024-11-30 21:21:03</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5044,7 @@
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:28</t>
+          <t>2024-11-30 21:21:08</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
@@ -5040,7 +5060,7 @@
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:22</t>
+          <t>2024-11-30 21:21:02</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
@@ -5056,7 +5076,7 @@
       </c>
       <c r="M42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:24</t>
+          <t>2024-11-30 21:21:04</t>
         </is>
       </c>
       <c r="N42" s="0" t="inlineStr">
@@ -5072,7 +5092,7 @@
       </c>
       <c r="Q42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:28</t>
+          <t>2024-11-30 21:21:08</t>
         </is>
       </c>
       <c r="R42" s="0" t="inlineStr">
@@ -5088,7 +5108,7 @@
       </c>
       <c r="U42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:23</t>
+          <t>2024-11-30 21:21:03</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5126,7 @@
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:34</t>
+          <t>2024-11-30 21:21:14</t>
         </is>
       </c>
       <c r="F43" s="0" t="inlineStr">
@@ -5122,7 +5142,7 @@
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:23</t>
+          <t>2024-11-30 21:21:03</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
@@ -5138,7 +5158,7 @@
       </c>
       <c r="M43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:24</t>
+          <t>2024-11-30 21:21:04</t>
         </is>
       </c>
       <c r="N43" s="0" t="inlineStr">
@@ -5154,7 +5174,7 @@
       </c>
       <c r="Q43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:28</t>
+          <t>2024-11-30 21:21:08</t>
         </is>
       </c>
       <c r="R43" s="0" t="inlineStr">
@@ -5170,57 +5190,57 @@
       </c>
       <c r="U43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:50:25</t>
+          <t>2024-11-30 21:21:05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>removed from serve queue</t>
+          <t>turn off</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>107.333</v>
+        <v>109</v>
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:49:26</t>
+          <t>2024-11-30 21:11:19</t>
         </is>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>125.999</v>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>2024-11-30 21:11:11</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
           <t>add to serve queue</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>251</v>
-      </c>
-      <c r="I44" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:49:32</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>removed from serve queue</t>
         </is>
       </c>
       <c r="K44" s="0" t="n">
         <v>0.33333</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>2.33331</v>
+        <v>0.99999</v>
       </c>
       <c r="M44" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:45:07</t>
+          <t>2024-11-30 21:11:12</t>
         </is>
       </c>
       <c r="N44" s="0" t="inlineStr">
@@ -5241,18 +5261,18 @@
       </c>
       <c r="R44" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>turn off</t>
         </is>
       </c>
       <c r="S44" s="0" t="n">
-        <v>0.33333</v>
+        <v>1</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>3.99999</v>
+        <v>18.6666</v>
       </c>
       <c r="U44" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:49:23</t>
+          <t>2024-11-30 21:11:18</t>
         </is>
       </c>
     </row>

--- a/server_test/out.xlsx
+++ b/server_test/out.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30240" windowHeight="14560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -36,13 +36,13 @@
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
+      <b val="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -443,17 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -461,6 +450,17 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -775,85 +775,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1449,26 +1449,33 @@
   </sheetPr>
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col width="10.6666666666667" customWidth="1" style="1" min="1" max="1"/>
-    <col width="7.33333333333333" customWidth="1" style="1" min="2" max="3"/>
-    <col width="7.775" customWidth="1" style="1" min="4" max="6"/>
-    <col width="6.21666666666667" customWidth="1" style="1" min="7" max="7"/>
-    <col width="5.44166666666667" customWidth="1" style="1" min="8" max="10"/>
-    <col width="6.21666666666667" customWidth="1" style="1" min="11" max="11"/>
-    <col width="5.44166666666667" customWidth="1" style="1" min="12" max="14"/>
-    <col width="6.21666666666667" customWidth="1" style="1" min="15" max="15"/>
-    <col width="5.44166666666667" customWidth="1" style="1" min="16" max="18"/>
-    <col width="6.21666666666667" customWidth="1" style="1" min="19" max="19"/>
-    <col width="5.44166666666667" customWidth="1" style="1" min="20" max="21"/>
-    <col width="6.21666666666667" customWidth="1" style="1" min="22" max="23"/>
-    <col width="5.44166666666667" customWidth="1" style="1" min="24" max="25"/>
-    <col width="6.21666666666667" customWidth="1" style="1" min="26" max="26"/>
+    <col width="10.6634615384615" customWidth="1" style="1" min="1" max="1"/>
+    <col width="24.3557692307692" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.7596153846154" customWidth="1" style="1" min="3" max="3"/>
+    <col width="18.5769230769231" customWidth="1" style="1" min="4" max="4"/>
+    <col width="18.5865384615385" customWidth="1" style="1" min="5" max="5"/>
+    <col width="14.5769230769231" customWidth="1" style="1" min="6" max="6"/>
+    <col width="6.22115384615385" customWidth="1" style="1" min="7" max="7"/>
+    <col width="5.44230769230769" customWidth="1" style="1" min="8" max="9"/>
+    <col width="7.51923076923077" customWidth="1" style="1" min="10" max="10"/>
+    <col width="6.22115384615385" customWidth="1" style="1" min="11" max="11"/>
+    <col width="5.44230769230769" customWidth="1" style="1" min="12" max="13"/>
+    <col width="8.48076923076923" customWidth="1" style="1" min="14" max="14"/>
+    <col width="6.22115384615385" customWidth="1" style="1" min="15" max="15"/>
+    <col width="5.44230769230769" customWidth="1" style="1" min="16" max="17"/>
+    <col width="10.5673076923077" customWidth="1" style="1" min="18" max="18"/>
+    <col width="6.22115384615385" customWidth="1" style="1" min="19" max="19"/>
+    <col width="5.44230769230769" customWidth="1" style="1" min="20" max="21"/>
+    <col width="9.61538461538461" customWidth="1" style="1" min="22" max="22"/>
+    <col width="6.22115384615385" customWidth="1" style="1" min="23" max="23"/>
+    <col width="5.44230769230769" customWidth="1" style="1" min="24" max="25"/>
+    <col width="10.4134615384615" customWidth="1" style="1" min="26" max="26"/>
     <col width="9" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
@@ -1508,118 +1515,118 @@
           <t>房间1</t>
         </is>
       </c>
-      <c r="H1" s="4" t="n"/>
-      <c r="I1" s="4" t="n"/>
-      <c r="J1" s="8" t="n"/>
+      <c r="H1" s="5" t="n"/>
+      <c r="I1" s="5" t="n"/>
+      <c r="J1" s="6" t="n"/>
       <c r="K1" s="33" t="inlineStr">
         <is>
           <t>房间2</t>
         </is>
       </c>
-      <c r="L1" s="4" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="8" t="n"/>
+      <c r="L1" s="5" t="n"/>
+      <c r="M1" s="5" t="n"/>
+      <c r="N1" s="6" t="n"/>
       <c r="O1" s="34" t="inlineStr">
         <is>
           <t>房间3</t>
         </is>
       </c>
-      <c r="P1" s="4" t="n"/>
-      <c r="Q1" s="4" t="n"/>
-      <c r="R1" s="8" t="n"/>
+      <c r="P1" s="5" t="n"/>
+      <c r="Q1" s="5" t="n"/>
+      <c r="R1" s="6" t="n"/>
       <c r="S1" s="35" t="inlineStr">
         <is>
           <t>房间4</t>
         </is>
       </c>
-      <c r="T1" s="4" t="n"/>
-      <c r="U1" s="4" t="n"/>
-      <c r="V1" s="8" t="n"/>
+      <c r="T1" s="5" t="n"/>
+      <c r="U1" s="5" t="n"/>
+      <c r="V1" s="6" t="n"/>
       <c r="W1" s="33" t="inlineStr">
         <is>
           <t>房间5</t>
         </is>
       </c>
-      <c r="X1" s="4" t="n"/>
-      <c r="Y1" s="4" t="n"/>
-      <c r="Z1" s="8" t="n"/>
-      <c r="AB1" s="10" t="inlineStr">
+      <c r="X1" s="5" t="n"/>
+      <c r="Y1" s="5" t="n"/>
+      <c r="Z1" s="6" t="n"/>
+      <c r="AB1" s="12" t="inlineStr">
         <is>
           <t>服务队列</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="n"/>
-      <c r="AD1" s="8" t="n"/>
-      <c r="AE1" s="27" t="inlineStr">
+      <c r="AC1" s="5" t="n"/>
+      <c r="AD1" s="6" t="n"/>
+      <c r="AE1" s="29" t="inlineStr">
         <is>
           <t>等待队列</t>
         </is>
       </c>
-      <c r="AF1" s="8" t="n"/>
+      <c r="AF1" s="6" t="n"/>
     </row>
     <row r="2" ht="16.5" customHeight="1" s="1">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>当前</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="11" t="inlineStr">
         <is>
           <t>目标</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="I2" s="11" t="inlineStr">
         <is>
           <t>风速</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="11" t="inlineStr">
         <is>
           <t>费用</t>
         </is>
       </c>
-      <c r="K2" s="16" t="inlineStr">
+      <c r="K2" s="15" t="inlineStr">
         <is>
           <t>当前</t>
         </is>
       </c>
-      <c r="L2" s="16" t="inlineStr">
+      <c r="L2" s="15" t="inlineStr">
         <is>
           <t>目标</t>
         </is>
       </c>
-      <c r="M2" s="16" t="inlineStr">
+      <c r="M2" s="15" t="inlineStr">
         <is>
           <t>风速</t>
         </is>
       </c>
-      <c r="N2" s="16" t="inlineStr">
+      <c r="N2" s="15" t="inlineStr">
         <is>
           <t>费用</t>
         </is>
       </c>
-      <c r="O2" s="17" t="inlineStr">
+      <c r="O2" s="20" t="inlineStr">
         <is>
           <t>当前</t>
         </is>
       </c>
-      <c r="P2" s="17" t="inlineStr">
+      <c r="P2" s="20" t="inlineStr">
         <is>
           <t>目标</t>
         </is>
       </c>
-      <c r="Q2" s="17" t="inlineStr">
+      <c r="Q2" s="20" t="inlineStr">
         <is>
           <t>风速</t>
         </is>
       </c>
-      <c r="R2" s="17" t="inlineStr">
+      <c r="R2" s="20" t="inlineStr">
         <is>
           <t>费用</t>
         </is>
@@ -1644,123 +1651,123 @@
           <t>费用</t>
         </is>
       </c>
-      <c r="W2" s="16" t="inlineStr">
+      <c r="W2" s="15" t="inlineStr">
         <is>
           <t>当前</t>
         </is>
       </c>
-      <c r="X2" s="16" t="inlineStr">
+      <c r="X2" s="15" t="inlineStr">
         <is>
           <t>目标</t>
         </is>
       </c>
-      <c r="Y2" s="16" t="inlineStr">
+      <c r="Y2" s="15" t="inlineStr">
         <is>
           <t>风速</t>
         </is>
       </c>
-      <c r="Z2" s="16" t="inlineStr">
+      <c r="Z2" s="15" t="inlineStr">
         <is>
           <t>费用</t>
         </is>
       </c>
-      <c r="AB2" s="12" t="n"/>
-      <c r="AC2" s="12" t="n"/>
-      <c r="AD2" s="12" t="n"/>
-      <c r="AE2" s="12" t="n"/>
-      <c r="AF2" s="12" t="n"/>
+      <c r="AB2" s="8" t="n"/>
+      <c r="AC2" s="8" t="n"/>
+      <c r="AD2" s="8" t="n"/>
+      <c r="AE2" s="8" t="n"/>
+      <c r="AF2" s="8" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" s="1">
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>中央空调启动</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="8" t="n"/>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>检查程序启动，进入设置环节：设置模式和工作温度，然后启动空调服务</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
-      <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
-      <c r="N3" s="4" t="n"/>
-      <c r="O3" s="4" t="n"/>
-      <c r="P3" s="4" t="n"/>
-      <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
-      <c r="S3" s="4" t="n"/>
-      <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
-      <c r="V3" s="8" t="n"/>
-      <c r="W3" s="18" t="n"/>
-      <c r="X3" s="18" t="n"/>
-      <c r="Y3" s="18" t="n"/>
-      <c r="Z3" s="18" t="n"/>
-      <c r="AB3" s="7" t="inlineStr">
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="5" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="16" t="n"/>
+      <c r="X3" s="16" t="n"/>
+      <c r="Y3" s="16" t="n"/>
+      <c r="Z3" s="16" t="n"/>
+      <c r="AB3" s="4" t="inlineStr">
         <is>
           <t>以下单元格填入房间号</t>
         </is>
       </c>
-      <c r="AC3" s="4" t="n"/>
-      <c r="AD3" s="4" t="n"/>
-      <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="8" t="n"/>
+      <c r="AC3" s="5" t="n"/>
+      <c r="AD3" s="5" t="n"/>
+      <c r="AE3" s="5" t="n"/>
+      <c r="AF3" s="6" t="n"/>
     </row>
     <row r="4" ht="16.5" customHeight="1" s="1">
-      <c r="A4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="A4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>开机</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10" t="n">
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18" t="n">
+      <c r="I4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L4" s="18" t="n">
+      <c r="L4" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19" t="n">
+      <c r="M4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P4" s="19" t="n">
+      <c r="P4" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19" t="n">
+      <c r="Q4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="21" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="25" t="n">
@@ -1775,25 +1782,25 @@
       <c r="V4" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="W4" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X4" s="18" t="n">
+      <c r="W4" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X4" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="Y4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="28" t="n">
+      <c r="Y4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AC4" s="28" t="inlineStr"/>
-      <c r="AD4" s="28" t="inlineStr"/>
-      <c r="AE4" s="29" t="inlineStr"/>
-      <c r="AF4" s="29" t="inlineStr"/>
+      <c r="AC4" s="27" t="inlineStr"/>
+      <c r="AD4" s="27" t="inlineStr"/>
+      <c r="AE4" s="30" t="inlineStr"/>
+      <c r="AF4" s="30" t="inlineStr"/>
       <c r="AG4" s="0" t="inlineStr"/>
       <c r="AH4" s="0" t="inlineStr"/>
       <c r="AI4" s="0" t="inlineStr"/>
@@ -1804,58 +1811,58 @@
       <c r="AN4" s="0" t="inlineStr"/>
     </row>
     <row r="5" ht="16.5" customHeight="1" s="1">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>开机</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>开机</t>
         </is>
       </c>
-      <c r="G5" s="10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="H5" s="10" t="n">
+      <c r="G5" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="H5" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="K5" s="18" t="n">
+      <c r="I5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="K5" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L5" s="18" t="n">
+      <c r="L5" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19" t="n">
+      <c r="M5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P5" s="19" t="n">
+      <c r="P5" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19" t="n">
+      <c r="Q5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="25" t="n">
@@ -1870,29 +1877,29 @@
       <c r="V5" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="W5" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X5" s="18" t="n">
+      <c r="W5" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X5" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="Y5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="28" t="n">
+      <c r="Y5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="28" t="n">
+      <c r="AC5" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE5" s="29" t="inlineStr"/>
-      <c r="AF5" s="29" t="inlineStr"/>
+      <c r="AE5" s="30" t="inlineStr"/>
+      <c r="AF5" s="30" t="inlineStr"/>
       <c r="AG5" s="0" t="inlineStr"/>
       <c r="AH5" s="0" t="inlineStr"/>
       <c r="AI5" s="0" t="inlineStr"/>
@@ -1903,52 +1910,52 @@
       <c r="AN5" s="0" t="inlineStr"/>
     </row>
     <row r="6" ht="16.5" customHeight="1" s="1">
-      <c r="A6" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="A6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>开机</t>
         </is>
       </c>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="H6" s="10" t="n">
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <v>0.66666</v>
-      </c>
-      <c r="K6" s="18" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L6" s="18" t="n">
+      <c r="I6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>0.666666</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="L6" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="O6" s="19" t="n">
+      <c r="M6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="O6" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P6" s="19" t="n">
+      <c r="P6" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19" t="n">
+      <c r="Q6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="25" t="n">
@@ -1963,31 +1970,31 @@
       <c r="V6" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="W6" s="18" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="X6" s="18" t="n">
+      <c r="W6" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="Y6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="AB6" s="28" t="n">
+      <c r="Y6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="AB6" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="28" t="n">
+      <c r="AC6" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE6" s="29" t="n">
+      <c r="AE6" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="AF6" s="29" t="inlineStr"/>
+      <c r="AF6" s="30" t="inlineStr"/>
       <c r="AG6" s="0" t="inlineStr"/>
       <c r="AH6" s="0" t="inlineStr"/>
       <c r="AI6" s="0" t="inlineStr"/>
@@ -1998,54 +2005,54 @@
       <c r="AN6" s="0" t="inlineStr"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" s="1">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n">
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>开机</t>
         </is>
       </c>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H7" s="10" t="n">
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="I7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="K7" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="L7" s="18" t="n">
+      <c r="I7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="K7" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="L7" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18" t="n">
-        <v>0.66666</v>
-      </c>
-      <c r="O7" s="19" t="n">
+      <c r="M7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16" t="n">
+        <v>0.666666</v>
+      </c>
+      <c r="O7" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P7" s="19" t="n">
+      <c r="P7" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="19" t="n">
+      <c r="Q7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="25" t="n">
@@ -2060,31 +2067,31 @@
       <c r="V7" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="W7" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="X7" s="18" t="n">
+      <c r="W7" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="X7" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="Y7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18" t="n">
-        <v>0.66666</v>
-      </c>
-      <c r="AB7" s="28" t="n">
+      <c r="Y7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16" t="n">
+        <v>0.666666</v>
+      </c>
+      <c r="AB7" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AC7" s="28" t="n">
+      <c r="AC7" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AD7" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="29" t="n">
+      <c r="AD7" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="AF7" s="29" t="n">
+      <c r="AF7" s="30" t="n">
         <v>4</v>
       </c>
       <c r="AG7" s="0" t="inlineStr"/>
@@ -2097,51 +2104,51 @@
       <c r="AN7" s="0" t="inlineStr"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" s="1">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10" t="n">
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="K8" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="H8" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="n">
-        <v>1.33332</v>
-      </c>
-      <c r="K8" s="18" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L8" s="18" t="n">
-        <v>19</v>
-      </c>
-      <c r="M8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="O8" s="19" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P8" s="19" t="n">
+      <c r="M8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="O8" s="21" t="n">
+        <v>23</v>
+      </c>
+      <c r="P8" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="19" t="n">
-        <v>0</v>
+      <c r="Q8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="21" t="n">
+        <v>0.333333</v>
       </c>
       <c r="S8" s="25" t="n">
         <v>21</v>
@@ -2155,31 +2162,31 @@
       <c r="V8" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="18" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="X8" s="18" t="n">
+      <c r="W8" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="X8" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="Y8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="AB8" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="28" t="n">
+      <c r="Y8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="AB8" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AD8" s="28" t="n">
+      <c r="AD8" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE8" s="29" t="n">
+      <c r="AE8" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="AF8" s="29" t="n">
+      <c r="AF8" s="30" t="n">
         <v>1</v>
       </c>
       <c r="AG8" s="0" t="inlineStr"/>
@@ -2192,56 +2199,56 @@
       <c r="AN8" s="0" t="inlineStr"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" s="1">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>高</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="H9" s="10" t="n">
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="H9" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="I9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
-        <v>1.33332</v>
-      </c>
-      <c r="K9" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="L9" s="18" t="n">
+      <c r="I9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="K9" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="L9" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="M9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18" t="n">
-        <v>1.33332</v>
-      </c>
-      <c r="O9" s="19" t="n">
-        <v>23</v>
-      </c>
-      <c r="P9" s="19" t="n">
+      <c r="M9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="O9" s="21" t="n">
+        <v>22</v>
+      </c>
+      <c r="P9" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19" t="n">
-        <v>0.33333</v>
+      <c r="Q9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="21" t="n">
+        <v>0.666666</v>
       </c>
       <c r="S9" s="25" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="T9" s="25" t="n">
         <v>16</v>
@@ -2250,33 +2257,33 @@
         <v>0</v>
       </c>
       <c r="V9" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="X9" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="18" t="n">
-        <v>1.33332</v>
-      </c>
-      <c r="AB9" s="28" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="W9" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="X9" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="AB9" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AC9" s="28" t="n">
+      <c r="AC9" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AD9" s="28" t="n">
+      <c r="AD9" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AE9" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="29" t="n">
+      <c r="AE9" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="30" t="n">
         <v>5</v>
       </c>
       <c r="AG9" s="0" t="inlineStr"/>
@@ -2289,56 +2296,56 @@
       <c r="AN9" s="0" t="inlineStr"/>
     </row>
     <row r="10" ht="16.5" customHeight="1" s="1">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>关机</t>
         </is>
       </c>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="10" t="n">
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="L10" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="H10" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="10" t="n">
-        <v>1.66665</v>
-      </c>
-      <c r="K10" s="20" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L10" s="18" t="n">
+      <c r="M10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>126</v>
+      </c>
+      <c r="O10" s="21" t="n">
+        <v>21</v>
+      </c>
+      <c r="P10" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="21" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="S10" s="25" t="n">
         <v>19</v>
-      </c>
-      <c r="M10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18" t="n">
-        <v>126.333</v>
-      </c>
-      <c r="O10" s="19" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="P10" s="19" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="19" t="n">
-        <v>0.66666</v>
-      </c>
-      <c r="S10" s="25" t="n">
-        <v>20</v>
       </c>
       <c r="T10" s="25" t="n">
         <v>16</v>
@@ -2347,33 +2354,33 @@
         <v>0</v>
       </c>
       <c r="V10" s="25" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="W10" s="18" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="X10" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="18" t="n">
-        <v>1.33332</v>
-      </c>
-      <c r="AB10" s="28" t="n">
+        <v>0.666666</v>
+      </c>
+      <c r="W10" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="X10" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="AB10" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AC10" s="28" t="n">
+      <c r="AC10" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AD10" s="28" t="n">
+      <c r="AD10" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AE10" s="29" t="n">
+      <c r="AE10" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="AF10" s="29" t="inlineStr"/>
+      <c r="AF10" s="30" t="inlineStr"/>
       <c r="AG10" s="0" t="inlineStr"/>
       <c r="AH10" s="0" t="inlineStr"/>
       <c r="AI10" s="0" t="inlineStr"/>
@@ -2384,60 +2391,60 @@
       <c r="AN10" s="0" t="inlineStr"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" s="1">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>开机</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>高</t>
         </is>
       </c>
-      <c r="G11" s="10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="G11" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="I11" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="10" t="n">
-        <v>2.66665</v>
-      </c>
-      <c r="K11" s="18" t="n">
+      <c r="H11" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L11" s="18" t="n">
+      <c r="L11" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="M11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="18" t="n">
-        <v>126.333</v>
-      </c>
-      <c r="O11" s="19" t="n">
-        <v>23</v>
-      </c>
-      <c r="P11" s="19" t="n">
+      <c r="M11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16" t="n">
+        <v>126</v>
+      </c>
+      <c r="O11" s="21" t="n">
+        <v>22</v>
+      </c>
+      <c r="P11" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="19" t="n">
-        <v>0.99999</v>
+      <c r="Q11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="21" t="n">
+        <v>0.999999</v>
       </c>
       <c r="S11" s="25" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="T11" s="25" t="n">
         <v>16</v>
@@ -2446,33 +2453,33 @@
         <v>0</v>
       </c>
       <c r="V11" s="25" t="n">
-        <v>0.66666</v>
-      </c>
-      <c r="W11" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X11" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="18" t="n">
-        <v>1.33332</v>
-      </c>
-      <c r="AB11" s="28" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="W11" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X11" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16" t="n">
+        <v>1.66666</v>
+      </c>
+      <c r="AB11" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AC11" s="28" t="n">
+      <c r="AC11" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AD11" s="28" t="n">
+      <c r="AD11" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE11" s="29" t="n">
+      <c r="AE11" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="AF11" s="29" t="n">
+      <c r="AF11" s="30" t="n">
         <v>2</v>
       </c>
       <c r="AG11" s="0" t="inlineStr"/>
@@ -2485,52 +2492,52 @@
       <c r="AN11" s="0" t="inlineStr"/>
     </row>
     <row r="12" ht="16.5" customHeight="1" s="1">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="10" t="n">
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="I12" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" s="10" t="n">
-        <v>3.66665</v>
-      </c>
-      <c r="K12" s="18" t="n">
+      <c r="I12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L12" s="18" t="n">
+      <c r="L12" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18" t="n">
-        <v>126.333</v>
-      </c>
-      <c r="O12" s="21" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P12" s="19" t="n">
+      <c r="M12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <v>126</v>
+      </c>
+      <c r="O12" s="22" t="n">
+        <v>23</v>
+      </c>
+      <c r="P12" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q12" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="19" t="n">
-        <v>0.99999</v>
+      <c r="Q12" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="21" t="n">
+        <v>0.999999</v>
       </c>
       <c r="S12" s="25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T12" s="25" t="n">
         <v>16</v>
@@ -2539,33 +2546,33 @@
         <v>0</v>
       </c>
       <c r="V12" s="25" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="W12" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X12" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y12" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="18" t="n">
-        <v>1.66665</v>
-      </c>
-      <c r="AB12" s="28" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="W12" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X12" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="16" t="n">
+        <v>2.66666</v>
+      </c>
+      <c r="AB12" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AC12" s="28" t="n">
+      <c r="AC12" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AD12" s="28" t="n">
+      <c r="AD12" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE12" s="29" t="n">
+      <c r="AE12" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="AF12" s="29" t="n">
+      <c r="AF12" s="30" t="n">
         <v>2</v>
       </c>
       <c r="AG12" s="0" t="inlineStr"/>
@@ -2578,58 +2585,58 @@
       <c r="AN12" s="0" t="inlineStr"/>
     </row>
     <row r="13" ht="16.5" customHeight="1" s="1">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="B13" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>18，高</t>
         </is>
       </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="10" t="n">
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="I13" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" s="10" t="n">
-        <v>4.66665</v>
-      </c>
-      <c r="K13" s="18" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L13" s="18" t="n">
+      <c r="I13" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="L13" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18" t="n">
+      <c r="M13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16" t="n">
         <v>126.333</v>
       </c>
-      <c r="O13" s="21" t="n">
+      <c r="O13" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="P13" s="19" t="n">
+      <c r="P13" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q13" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="19" t="n">
-        <v>0.99999</v>
+      <c r="Q13" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21" t="n">
+        <v>0.999999</v>
       </c>
       <c r="S13" s="25" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="T13" s="25" t="n">
         <v>16</v>
@@ -2638,33 +2645,33 @@
         <v>0</v>
       </c>
       <c r="V13" s="25" t="n">
-        <v>1.33332</v>
-      </c>
-      <c r="W13" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X13" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y13" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="18" t="n">
-        <v>2.66665</v>
-      </c>
-      <c r="AB13" s="28" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="W13" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X13" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="16" t="n">
+        <v>3.66666</v>
+      </c>
+      <c r="AB13" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AC13" s="28" t="n">
+      <c r="AC13" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AD13" s="28" t="n">
+      <c r="AD13" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AE13" s="29" t="n">
+      <c r="AE13" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="AF13" s="29" t="n">
+      <c r="AF13" s="30" t="n">
         <v>2</v>
       </c>
       <c r="AG13" s="0" t="inlineStr"/>
@@ -2677,52 +2684,52 @@
       <c r="AN13" s="0" t="inlineStr"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" s="1">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" s="10" t="n">
-        <v>5.66665</v>
-      </c>
-      <c r="K14" s="18" t="n">
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="H14" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I14" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="18" t="n">
+      <c r="M14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16" t="n">
         <v>126.333</v>
       </c>
-      <c r="O14" s="21" t="n">
+      <c r="O14" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="P14" s="19" t="n">
+      <c r="P14" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q14" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19" t="n">
-        <v>0.99999</v>
+      <c r="Q14" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="21" t="n">
+        <v>0.999999</v>
       </c>
       <c r="S14" s="25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T14" s="25" t="n">
         <v>18</v>
@@ -2731,33 +2738,33 @@
         <v>2</v>
       </c>
       <c r="V14" s="25" t="n">
-        <v>1.66665</v>
-      </c>
-      <c r="W14" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X14" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y14" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="18" t="n">
-        <v>3.66665</v>
-      </c>
-      <c r="AB14" s="28" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="W14" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X14" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="16" t="n">
+        <v>4.66666</v>
+      </c>
+      <c r="AB14" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AC14" s="28" t="n">
+      <c r="AC14" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AD14" s="28" t="n">
+      <c r="AD14" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AE14" s="29" t="n">
+      <c r="AE14" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="AF14" s="29" t="n">
+      <c r="AF14" s="30" t="n">
         <v>2</v>
       </c>
       <c r="AG14" s="0" t="inlineStr"/>
@@ -2770,54 +2777,54 @@
       <c r="AN14" s="0" t="inlineStr"/>
     </row>
     <row r="15" ht="16.5" customHeight="1" s="1">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="H15" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="10" t="n">
-        <v>6.66665</v>
-      </c>
-      <c r="K15" s="18" t="n">
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L15" s="18" t="n">
+      <c r="L15" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M15" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="18" t="n">
+      <c r="M15" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16" t="n">
         <v>126.333</v>
       </c>
-      <c r="O15" s="21" t="n">
+      <c r="O15" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="P15" s="19" t="n">
+      <c r="P15" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q15" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="19" t="n">
-        <v>0.99999</v>
+      <c r="Q15" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="21" t="n">
+        <v>0.999999</v>
       </c>
       <c r="S15" s="25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="T15" s="25" t="n">
         <v>18</v>
@@ -2826,33 +2833,33 @@
         <v>2</v>
       </c>
       <c r="V15" s="25" t="n">
-        <v>2.66665</v>
-      </c>
-      <c r="W15" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X15" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="18" t="n">
-        <v>4.66665</v>
-      </c>
-      <c r="AB15" s="28" t="n">
+        <v>3.33333</v>
+      </c>
+      <c r="W15" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X15" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="16" t="n">
+        <v>5.66666</v>
+      </c>
+      <c r="AB15" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AC15" s="28" t="n">
+      <c r="AC15" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AD15" s="28" t="n">
+      <c r="AD15" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AE15" s="29" t="n">
+      <c r="AE15" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="AF15" s="29" t="n">
+      <c r="AF15" s="30" t="n">
         <v>2</v>
       </c>
       <c r="AG15" s="0" t="inlineStr"/>
@@ -2865,53 +2872,53 @@
       <c r="AN15" s="0" t="inlineStr"/>
     </row>
     <row r="16" ht="16.5" customHeight="1" s="1">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="inlineStr">
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>低</t>
         </is>
       </c>
-      <c r="G16" s="10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="H16" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="10" t="n">
-        <v>7.66665</v>
-      </c>
-      <c r="K16" s="22" t="n">
+      <c r="G16" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="L16" s="22" t="n">
-        <v>22</v>
-      </c>
-      <c r="M16" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="18" t="n">
+      <c r="L16" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16" t="n">
         <v>126.333</v>
       </c>
-      <c r="O16" s="19" t="n">
+      <c r="O16" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P16" s="19" t="n">
+      <c r="P16" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q16" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="19" t="n">
-        <v>0.99999</v>
+      <c r="Q16" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="21" t="n">
+        <v>0.999999</v>
       </c>
       <c r="S16" s="26" t="n">
         <v>18</v>
@@ -2923,33 +2930,33 @@
         <v>2</v>
       </c>
       <c r="V16" s="25" t="n">
-        <v>3.66665</v>
-      </c>
-      <c r="W16" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="X16" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y16" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="18" t="n">
-        <v>5.66665</v>
-      </c>
-      <c r="AB16" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="28" t="n">
+        <v>4.33333</v>
+      </c>
+      <c r="W16" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X16" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="16" t="n">
+        <v>6.66666</v>
+      </c>
+      <c r="AB16" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AD16" s="28" t="n">
+      <c r="AD16" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AE16" s="29" t="n">
+      <c r="AE16" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="AF16" s="29" t="n">
+      <c r="AF16" s="30" t="n">
         <v>3</v>
       </c>
       <c r="AG16" s="0" t="inlineStr"/>
@@ -2962,49 +2969,49 @@
       <c r="AN16" s="0" t="inlineStr"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" s="1">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H17" s="11" t="n">
-        <v>22</v>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="10" t="n">
-        <v>8.666650000000001</v>
-      </c>
-      <c r="K17" s="20" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L17" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="M17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="18" t="n">
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="L17" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="M17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16" t="n">
         <v>126.666</v>
       </c>
-      <c r="O17" s="19" t="n">
+      <c r="O17" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P17" s="19" t="n">
+      <c r="P17" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q17" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="19" t="n">
-        <v>0.99999</v>
+      <c r="Q17" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="21" t="n">
+        <v>0.999999</v>
       </c>
       <c r="S17" s="26" t="n">
         <v>18</v>
@@ -3016,33 +3023,33 @@
         <v>2</v>
       </c>
       <c r="V17" s="25" t="n">
-        <v>4.66665</v>
-      </c>
-      <c r="W17" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="X17" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y17" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="18" t="n">
-        <v>5.66665</v>
-      </c>
-      <c r="AB17" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="28" t="n">
+        <v>5.33333</v>
+      </c>
+      <c r="W17" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X17" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16" t="n">
+        <v>6.66666</v>
+      </c>
+      <c r="AB17" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AD17" s="28" t="n">
+      <c r="AD17" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="AE17" s="29" t="n">
+      <c r="AE17" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="AF17" s="29" t="n">
+      <c r="AF17" s="30" t="n">
         <v>3</v>
       </c>
       <c r="AG17" s="0" t="inlineStr"/>
@@ -3055,57 +3062,57 @@
       <c r="AN17" s="0" t="inlineStr"/>
     </row>
     <row r="18" ht="16.5" customHeight="1" s="1">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>关机</t>
         </is>
       </c>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="inlineStr">
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>24，低</t>
         </is>
       </c>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H18" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I18" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K18" s="20" t="n">
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K18" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="L18" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="M18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="18" t="n">
-        <v>126.999</v>
-      </c>
-      <c r="O18" s="19" t="n">
+      <c r="L18" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="16" t="n">
+        <v>126.666</v>
+      </c>
+      <c r="O18" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P18" s="19" t="n">
+      <c r="P18" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="19" t="n">
-        <v>0.99999</v>
+      <c r="Q18" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="21" t="n">
+        <v>1.33333</v>
       </c>
       <c r="S18" s="25" t="n">
         <v>18</v>
@@ -3117,31 +3124,31 @@
         <v>2</v>
       </c>
       <c r="V18" s="25" t="n">
-        <v>5.66665</v>
-      </c>
-      <c r="W18" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X18" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="18" t="n">
-        <v>5.66665</v>
-      </c>
-      <c r="AB18" s="28" t="n">
+        <v>6.33333</v>
+      </c>
+      <c r="W18" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X18" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16" t="n">
+        <v>6.66666</v>
+      </c>
+      <c r="AB18" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AC18" s="28" t="n">
+      <c r="AC18" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AD18" s="28" t="inlineStr"/>
-      <c r="AE18" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="29" t="n">
+      <c r="AD18" s="27" t="inlineStr"/>
+      <c r="AE18" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="30" t="n">
         <v>5</v>
       </c>
       <c r="AG18" s="0" t="inlineStr"/>
@@ -3154,53 +3161,53 @@
       <c r="AN18" s="0" t="inlineStr"/>
     </row>
     <row r="19" ht="16.5" customHeight="1" s="1">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>20，高</t>
         </is>
       </c>
-      <c r="G19" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K19" s="18" t="n">
+      <c r="G19" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I19" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K19" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L19" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="M19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="18" t="n">
-        <v>126.999</v>
-      </c>
-      <c r="O19" s="19" t="n">
+      <c r="L19" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="M19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16" t="n">
+        <v>126.666</v>
+      </c>
+      <c r="O19" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P19" s="19" t="n">
+      <c r="P19" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q19" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="19" t="n">
-        <v>1.33332</v>
+      <c r="Q19" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="21" t="n">
+        <v>1.66666</v>
       </c>
       <c r="S19" s="26" t="n">
         <v>18</v>
@@ -3212,31 +3219,31 @@
         <v>2</v>
       </c>
       <c r="V19" s="25" t="n">
-        <v>6.66665</v>
-      </c>
-      <c r="W19" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="X19" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y19" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="18" t="n">
-        <v>5.66665</v>
-      </c>
-      <c r="AB19" s="28" t="n">
+        <v>7.33333</v>
+      </c>
+      <c r="W19" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X19" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16" t="n">
+        <v>6.66666</v>
+      </c>
+      <c r="AB19" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AC19" s="28" t="n">
+      <c r="AC19" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AD19" s="28" t="inlineStr"/>
-      <c r="AE19" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF19" s="29" t="n">
+      <c r="AD19" s="27" t="inlineStr"/>
+      <c r="AE19" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="30" t="n">
         <v>3</v>
       </c>
       <c r="AG19" s="0" t="inlineStr"/>
@@ -3249,53 +3256,53 @@
       <c r="AN19" s="0" t="inlineStr"/>
     </row>
     <row r="20" ht="16.5" customHeight="1" s="1">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>关机</t>
         </is>
       </c>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K20" s="20" t="n">
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="H20" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I20" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K20" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="L20" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="M20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O20" s="19" t="n">
+      <c r="L20" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="M20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O20" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P20" s="19" t="n">
+      <c r="P20" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q20" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="19" t="n">
-        <v>1.33332</v>
+      <c r="Q20" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="21" t="n">
+        <v>1.66666</v>
       </c>
       <c r="S20" s="26" t="n">
         <v>18</v>
@@ -3307,31 +3314,31 @@
         <v>2</v>
       </c>
       <c r="V20" s="25" t="n">
-        <v>7.66665</v>
-      </c>
-      <c r="W20" s="20" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="X20" s="18" t="n">
+        <v>8.33333</v>
+      </c>
+      <c r="W20" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="X20" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="Y20" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="18" t="n">
-        <v>5.99998</v>
-      </c>
-      <c r="AB20" s="28" t="n">
+      <c r="Y20" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="16" t="n">
+        <v>7.66666</v>
+      </c>
+      <c r="AB20" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AC20" s="28" t="n">
+      <c r="AC20" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AD20" s="28" t="inlineStr"/>
-      <c r="AE20" s="29" t="n">
+      <c r="AD20" s="27" t="inlineStr"/>
+      <c r="AE20" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="AF20" s="29" t="inlineStr"/>
+      <c r="AF20" s="30" t="inlineStr"/>
       <c r="AG20" s="0" t="inlineStr"/>
       <c r="AH20" s="0" t="inlineStr"/>
       <c r="AI20" s="0" t="inlineStr"/>
@@ -3342,53 +3349,53 @@
       <c r="AN20" s="0" t="inlineStr"/>
     </row>
     <row r="21" ht="16.5" customHeight="1" s="1">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>高</t>
         </is>
       </c>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K21" s="20" t="n">
+      <c r="E21" s="4" t="n"/>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H21" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I21" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K21" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="L21" s="20" t="n">
-        <v>22</v>
-      </c>
-      <c r="M21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O21" s="19" t="n">
+      <c r="L21" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="M21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O21" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P21" s="19" t="n">
+      <c r="P21" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q21" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="19" t="n">
-        <v>1.33332</v>
+      <c r="Q21" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="21" t="n">
+        <v>1.66666</v>
       </c>
       <c r="S21" s="25" t="n">
         <v>18</v>
@@ -3400,31 +3407,31 @@
         <v>2</v>
       </c>
       <c r="V21" s="25" t="n">
-        <v>8.666650000000001</v>
-      </c>
-      <c r="W21" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="X21" s="18" t="n">
+        <v>9.33333</v>
+      </c>
+      <c r="W21" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X21" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="Y21" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="18" t="n">
-        <v>6.99998</v>
-      </c>
-      <c r="AB21" s="28" t="n">
+      <c r="Y21" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="16" t="n">
+        <v>8.66666</v>
+      </c>
+      <c r="AB21" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AC21" s="28" t="n">
+      <c r="AC21" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AD21" s="28" t="inlineStr"/>
-      <c r="AE21" s="29" t="n">
+      <c r="AD21" s="27" t="inlineStr"/>
+      <c r="AE21" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="AF21" s="29" t="inlineStr"/>
+      <c r="AF21" s="30" t="inlineStr"/>
       <c r="AG21" s="0" t="inlineStr"/>
       <c r="AH21" s="0" t="inlineStr"/>
       <c r="AI21" s="0" t="inlineStr"/>
@@ -3435,60 +3442,60 @@
       <c r="AN21" s="0" t="inlineStr"/>
     </row>
     <row r="22" ht="16.5" customHeight="1" s="1">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>开机</t>
         </is>
       </c>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="12" t="n"/>
-      <c r="E22" s="7" t="inlineStr">
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="8" t="n"/>
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>20，中</t>
         </is>
       </c>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H22" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K22" s="20" t="n">
+      <c r="F22" s="4" t="n"/>
+      <c r="G22" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I22" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K22" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="L22" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="M22" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O22" s="19" t="n">
+      <c r="L22" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="M22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O22" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P22" s="19" t="n">
+      <c r="P22" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q22" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="19" t="n">
-        <v>1.66665</v>
+      <c r="Q22" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="21" t="n">
+        <v>2.66666</v>
       </c>
       <c r="S22" s="26" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="T22" s="26" t="n">
         <v>18</v>
@@ -3497,33 +3504,33 @@
         <v>2</v>
       </c>
       <c r="V22" s="25" t="n">
-        <v>8.666650000000001</v>
-      </c>
-      <c r="W22" s="20" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="X22" s="20" t="n">
+        <v>9.33333</v>
+      </c>
+      <c r="W22" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="X22" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="Y22" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="18" t="n">
-        <v>7.99998</v>
-      </c>
-      <c r="AB22" s="28" t="n">
+      <c r="Y22" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="16" t="n">
+        <v>9.66666</v>
+      </c>
+      <c r="AB22" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AC22" s="28" t="n">
+      <c r="AC22" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AD22" s="28" t="n">
+      <c r="AD22" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE22" s="29" t="n">
+      <c r="AE22" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="AF22" s="29" t="inlineStr"/>
+      <c r="AF22" s="30" t="inlineStr"/>
       <c r="AG22" s="0" t="inlineStr"/>
       <c r="AH22" s="0" t="inlineStr"/>
       <c r="AI22" s="0" t="inlineStr"/>
@@ -3534,53 +3541,53 @@
       <c r="AN22" s="0" t="inlineStr"/>
     </row>
     <row r="23" ht="16.5" customHeight="1" s="1">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>开机</t>
         </is>
       </c>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H23" s="10" t="n">
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="H23" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="I23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K23" s="18" t="n">
+      <c r="I23" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K23" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L23" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="M23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O23" s="19" t="n">
+      <c r="L23" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="M23" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O23" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P23" s="19" t="n">
+      <c r="P23" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q23" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="19" t="n">
-        <v>2.66665</v>
+      <c r="Q23" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="21" t="n">
+        <v>3.66666</v>
       </c>
       <c r="S23" s="25" t="n">
         <v>19</v>
@@ -3592,33 +3599,33 @@
         <v>1</v>
       </c>
       <c r="V23" s="25" t="n">
-        <v>9.666650000000001</v>
-      </c>
-      <c r="W23" s="18" t="n">
+        <v>9.83333</v>
+      </c>
+      <c r="W23" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X23" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="X23" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y23" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="18" t="n">
-        <v>8.999980000000001</v>
-      </c>
-      <c r="AB23" s="28" t="n">
+      <c r="Y23" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="16" t="n">
+        <v>10.6667</v>
+      </c>
+      <c r="AB23" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AC23" s="28" t="n">
+      <c r="AC23" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AD23" s="28" t="n">
+      <c r="AD23" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE23" s="29" t="n">
+      <c r="AE23" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="AF23" s="29" t="n">
+      <c r="AF23" s="30" t="n">
         <v>2</v>
       </c>
       <c r="AG23" s="0" t="inlineStr"/>
@@ -3631,54 +3638,54 @@
       <c r="AN23" s="0" t="inlineStr"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" s="1">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n">
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="4" t="n"/>
+      <c r="F24" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H24" s="10" t="n">
+      <c r="G24" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="I24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K24" s="18" t="n">
+      <c r="I24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K24" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L24" s="18" t="n">
+      <c r="L24" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O24" s="19" t="n">
+      <c r="M24" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O24" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P24" s="19" t="n">
+      <c r="P24" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q24" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="19" t="n">
-        <v>3.66665</v>
+      <c r="Q24" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="21" t="n">
+        <v>4.66666</v>
       </c>
       <c r="S24" s="25" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="T24" s="25" t="n">
         <v>20</v>
@@ -3687,33 +3694,33 @@
         <v>1</v>
       </c>
       <c r="V24" s="25" t="n">
-        <v>10.1666</v>
-      </c>
-      <c r="W24" s="18" t="n">
+        <v>10.3333</v>
+      </c>
+      <c r="W24" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="X24" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="X24" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y24" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="18" t="n">
-        <v>9.999980000000001</v>
-      </c>
-      <c r="AB24" s="28" t="n">
+      <c r="Y24" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="16" t="n">
+        <v>11.6667</v>
+      </c>
+      <c r="AB24" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AC24" s="28" t="n">
+      <c r="AC24" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AD24" s="28" t="n">
+      <c r="AD24" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE24" s="29" t="n">
+      <c r="AE24" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="AF24" s="29" t="n">
+      <c r="AF24" s="30" t="n">
         <v>2</v>
       </c>
       <c r="AG24" s="0" t="inlineStr"/>
@@ -3726,52 +3733,52 @@
       <c r="AN24" s="0" t="inlineStr"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" s="1">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H25" s="10" t="n">
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="I25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K25" s="20" t="n">
+      <c r="I25" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K25" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="L25" s="20" t="n">
+      <c r="L25" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="M25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O25" s="21" t="n">
+      <c r="M25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O25" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="P25" s="21" t="n">
+      <c r="P25" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="Q25" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="19" t="n">
-        <v>4.66665</v>
+      <c r="Q25" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="21" t="n">
+        <v>5.66666</v>
       </c>
       <c r="S25" s="25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T25" s="25" t="n">
         <v>20</v>
@@ -3780,33 +3787,33 @@
         <v>1</v>
       </c>
       <c r="V25" s="25" t="n">
-        <v>10.6666</v>
-      </c>
-      <c r="W25" s="18" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="X25" s="18" t="n">
+        <v>10.8333</v>
+      </c>
+      <c r="W25" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X25" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="Y25" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB25" s="28" t="n">
+      <c r="Y25" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="16" t="n">
+        <v>12.6667</v>
+      </c>
+      <c r="AB25" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AC25" s="28" t="n">
+      <c r="AC25" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AD25" s="28" t="n">
+      <c r="AD25" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="AE25" s="29" t="n">
+      <c r="AE25" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="AF25" s="29" t="n">
+      <c r="AF25" s="30" t="n">
         <v>2</v>
       </c>
       <c r="AG25" s="0" t="inlineStr"/>
@@ -3819,56 +3826,56 @@
       <c r="AN25" s="0" t="inlineStr"/>
     </row>
     <row r="26" ht="16.5" customHeight="1" s="1">
-      <c r="A26" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="inlineStr">
+      <c r="A26" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>关机</t>
         </is>
       </c>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H26" s="10" t="n">
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="H26" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="I26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K26" s="20" t="n">
+      <c r="I26" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="K26" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="L26" s="18" t="n">
+      <c r="L26" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O26" s="19" t="n">
+      <c r="M26" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O26" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P26" s="19" t="n">
+      <c r="P26" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q26" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="19" t="n">
-        <v>155.667</v>
+      <c r="Q26" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="21" t="n">
+        <v>156.667</v>
       </c>
       <c r="S26" s="26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T26" s="26" t="n">
         <v>20</v>
@@ -3877,27 +3884,27 @@
         <v>1</v>
       </c>
       <c r="V26" s="25" t="n">
-        <v>11.1666</v>
-      </c>
-      <c r="W26" s="20" t="n">
-        <v>21</v>
-      </c>
-      <c r="X26" s="20" t="n">
+        <v>11.3333</v>
+      </c>
+      <c r="W26" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X26" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="Y26" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB26" s="30" t="n">
+      <c r="Y26" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="16" t="n">
+        <v>13.6667</v>
+      </c>
+      <c r="AB26" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AC26" s="30" t="n">
+      <c r="AC26" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="AD26" s="30" t="inlineStr"/>
+      <c r="AD26" s="28" t="inlineStr"/>
       <c r="AE26" s="31" t="n">
         <v>1</v>
       </c>
@@ -3914,56 +3921,56 @@
       <c r="AN26" s="0" t="inlineStr"/>
     </row>
     <row r="27" ht="16.5" customHeight="1" s="1">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="inlineStr">
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>关机</t>
         </is>
       </c>
-      <c r="G27" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H27" s="11" t="n">
+      <c r="G27" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="H27" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="I27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10" t="n">
-        <v>109.667</v>
-      </c>
-      <c r="K27" s="18" t="n">
+      <c r="I27" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12" t="n">
+        <v>210</v>
+      </c>
+      <c r="K27" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L27" s="18" t="n">
+      <c r="L27" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M27" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O27" s="19" t="n">
+      <c r="M27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O27" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P27" s="19" t="n">
+      <c r="P27" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q27" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="19" t="n">
-        <v>155.667</v>
+      <c r="Q27" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="21" t="n">
+        <v>156.667</v>
       </c>
       <c r="S27" s="26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T27" s="25" t="n">
         <v>20</v>
@@ -3972,31 +3979,29 @@
         <v>1</v>
       </c>
       <c r="V27" s="25" t="n">
-        <v>11.6666</v>
-      </c>
-      <c r="W27" s="20" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="X27" s="18" t="n">
+        <v>11.8333</v>
+      </c>
+      <c r="W27" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X27" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="Y27" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="18" t="n">
-        <v>113</v>
-      </c>
-      <c r="AB27" s="30" t="n">
+      <c r="Y27" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="16" t="n">
+        <v>114.667</v>
+      </c>
+      <c r="AB27" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AC27" s="30" t="inlineStr"/>
-      <c r="AD27" s="30" t="inlineStr"/>
+      <c r="AC27" s="28" t="inlineStr"/>
+      <c r="AD27" s="28" t="inlineStr"/>
       <c r="AE27" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="31" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AF27" s="31" t="inlineStr"/>
       <c r="AG27" s="0" t="inlineStr"/>
       <c r="AH27" s="0" t="inlineStr"/>
       <c r="AI27" s="0" t="inlineStr"/>
@@ -4007,56 +4012,56 @@
       <c r="AN27" s="0" t="inlineStr"/>
     </row>
     <row r="28" ht="16.5" customHeight="1" s="1">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>关机</t>
         </is>
       </c>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="H28" s="10" t="n">
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="H28" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="I28" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10" t="n">
-        <v>209.667</v>
-      </c>
-      <c r="K28" s="18" t="n">
+      <c r="I28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12" t="n">
+        <v>210</v>
+      </c>
+      <c r="K28" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="L28" s="18" t="n">
+      <c r="L28" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="M28" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="18" t="n">
-        <v>251.999</v>
-      </c>
-      <c r="O28" s="21" t="n">
+      <c r="M28" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="16" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="O28" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="P28" s="21" t="n">
+      <c r="P28" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="Q28" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="19" t="n">
-        <v>155.667</v>
+      <c r="Q28" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="21" t="n">
+        <v>156.667</v>
       </c>
       <c r="S28" s="25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T28" s="25" t="n">
         <v>20</v>
@@ -4065,25 +4070,25 @@
         <v>1</v>
       </c>
       <c r="V28" s="25" t="n">
-        <v>12.1666</v>
-      </c>
-      <c r="W28" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X28" s="18" t="n">
+        <v>12.3333</v>
+      </c>
+      <c r="W28" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X28" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="Y28" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z28" s="18" t="n">
-        <v>113</v>
-      </c>
-      <c r="AB28" s="30" t="n">
+      <c r="Y28" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="16" t="n">
+        <v>114.667</v>
+      </c>
+      <c r="AB28" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="AC28" s="30" t="inlineStr"/>
-      <c r="AD28" s="30" t="inlineStr"/>
+      <c r="AC28" s="28" t="inlineStr"/>
+      <c r="AD28" s="28" t="inlineStr"/>
       <c r="AE28" s="31" t="n">
         <v>2</v>
       </c>
@@ -4098,60 +4103,60 @@
       <c r="AN28" s="0" t="inlineStr"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" s="1">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="inlineStr">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>关机</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>关机</t>
         </is>
       </c>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H29" s="10" t="n">
+      <c r="F29" s="4" t="n"/>
+      <c r="G29" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="H29" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="I29" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10" t="n">
-        <v>209.667</v>
-      </c>
-      <c r="K29" s="20" t="n">
+      <c r="I29" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12" t="n">
+        <v>210</v>
+      </c>
+      <c r="K29" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="L29" s="20" t="n">
+      <c r="L29" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="M29" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="18" t="n">
-        <v>376.999</v>
-      </c>
-      <c r="O29" s="19" t="n">
+      <c r="M29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16" t="n">
+        <v>376.666</v>
+      </c>
+      <c r="O29" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="P29" s="19" t="n">
+      <c r="P29" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="Q29" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="19" t="n">
-        <v>155.667</v>
+      <c r="Q29" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="21" t="n">
+        <v>156.667</v>
       </c>
       <c r="S29" s="25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T29" s="25" t="n">
         <v>20</v>
@@ -4160,23 +4165,25 @@
         <v>1</v>
       </c>
       <c r="V29" s="25" t="n">
-        <v>212.667</v>
-      </c>
-      <c r="W29" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="X29" s="18" t="n">
+        <v>212.833</v>
+      </c>
+      <c r="W29" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="X29" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="Y29" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="18" t="n">
-        <v>113</v>
-      </c>
-      <c r="AB29" s="30" t="inlineStr"/>
-      <c r="AC29" s="30" t="inlineStr"/>
-      <c r="AD29" s="30" t="inlineStr"/>
+      <c r="Y29" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="16" t="n">
+        <v>114.667</v>
+      </c>
+      <c r="AB29" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="28" t="inlineStr"/>
+      <c r="AD29" s="28" t="inlineStr"/>
       <c r="AE29" s="31" t="inlineStr"/>
       <c r="AF29" s="31" t="inlineStr"/>
       <c r="AG29" s="0" t="inlineStr"/>
@@ -4189,84 +4196,84 @@
       <c r="AN29" s="0" t="inlineStr"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="1">
-      <c r="A30" s="9" t="inlineStr">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>费用小计</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>209.667</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>376.999</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>155.667</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>212.667</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="G30" s="10" t="n"/>
-      <c r="H30" s="10" t="n"/>
-      <c r="I30" s="10" t="n"/>
-      <c r="J30" s="10" t="n"/>
-      <c r="K30" s="18" t="n"/>
-      <c r="L30" s="18" t="n"/>
-      <c r="M30" s="18" t="n"/>
-      <c r="N30" s="18" t="n"/>
-      <c r="O30" s="19" t="n"/>
-      <c r="P30" s="19" t="n"/>
-      <c r="Q30" s="19" t="n"/>
-      <c r="R30" s="19" t="n"/>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>210.333</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>376.666</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>156.667</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>212.833</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>114.667</t>
+        </is>
+      </c>
+      <c r="G30" s="12" t="n"/>
+      <c r="H30" s="12" t="n"/>
+      <c r="I30" s="12" t="n"/>
+      <c r="J30" s="12" t="n"/>
+      <c r="K30" s="16" t="n"/>
+      <c r="L30" s="16" t="n"/>
+      <c r="M30" s="16" t="n"/>
+      <c r="N30" s="16" t="n"/>
+      <c r="O30" s="21" t="n"/>
+      <c r="P30" s="21" t="n"/>
+      <c r="Q30" s="21" t="n"/>
+      <c r="R30" s="21" t="n"/>
       <c r="S30" s="25" t="n"/>
       <c r="T30" s="25" t="n"/>
       <c r="U30" s="25" t="n"/>
       <c r="V30" s="25" t="n"/>
-      <c r="W30" s="18" t="n"/>
-      <c r="X30" s="18" t="n"/>
-      <c r="Y30" s="18" t="n"/>
-      <c r="Z30" s="18" t="n"/>
-      <c r="AB30" s="30" t="n"/>
-      <c r="AC30" s="30" t="n"/>
-      <c r="AD30" s="30" t="n"/>
+      <c r="W30" s="16" t="n"/>
+      <c r="X30" s="16" t="n"/>
+      <c r="Y30" s="16" t="n"/>
+      <c r="Z30" s="16" t="n"/>
+      <c r="AB30" s="28" t="n"/>
+      <c r="AC30" s="28" t="n"/>
+      <c r="AD30" s="28" t="n"/>
       <c r="AE30" s="31" t="n"/>
       <c r="AF30" s="31" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="13" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
         <is>
           <t>房间1</t>
         </is>
       </c>
-      <c r="F32" s="13" t="inlineStr">
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t>房间2</t>
         </is>
       </c>
-      <c r="J32" s="13" t="inlineStr">
+      <c r="J32" s="9" t="inlineStr">
         <is>
           <t>房间3</t>
         </is>
       </c>
-      <c r="N32" s="13" t="inlineStr">
+      <c r="N32" s="9" t="inlineStr">
         <is>
           <t>房间4</t>
         </is>
       </c>
-      <c r="R32" s="13" t="inlineStr">
+      <c r="R32" s="9" t="inlineStr">
         <is>
           <t>房间5</t>
         </is>
@@ -4388,7 +4395,7 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:50</t>
+          <t>2024-12-01 14:13:21</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
@@ -4404,7 +4411,7 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:51</t>
+          <t>2024-12-01 14:13:23</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
@@ -4420,7 +4427,7 @@
       </c>
       <c r="M34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:52</t>
+          <t>2024-12-01 14:13:25</t>
         </is>
       </c>
       <c r="N34" s="0" t="inlineStr">
@@ -4436,7 +4443,7 @@
       </c>
       <c r="Q34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:53</t>
+          <t>2024-12-01 14:13:27</t>
         </is>
       </c>
       <c r="R34" s="0" t="inlineStr">
@@ -4452,7 +4459,7 @@
       </c>
       <c r="U34" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:51</t>
+          <t>2024-12-01 14:13:23</t>
         </is>
       </c>
     </row>
@@ -4463,14 +4470,14 @@
         </is>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:51</t>
+          <t>2024-12-01 14:13:23</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
@@ -4479,14 +4486,14 @@
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.66666</v>
+        <v>0.666666</v>
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:53</t>
+          <t>2024-12-01 14:13:27</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
@@ -4495,14 +4502,14 @@
         </is>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:53</t>
+          <t>2024-12-01 14:13:27</t>
         </is>
       </c>
       <c r="N35" s="0" t="inlineStr">
@@ -4511,14 +4518,14 @@
         </is>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:54</t>
+          <t>2024-12-01 14:13:29</t>
         </is>
       </c>
       <c r="R35" s="0" t="inlineStr">
@@ -4527,14 +4534,14 @@
         </is>
       </c>
       <c r="S35" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>0.99999</v>
+        <v>0.999999</v>
       </c>
       <c r="U35" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:54</t>
+          <t>2024-12-01 14:13:29</t>
         </is>
       </c>
     </row>
@@ -4548,11 +4555,11 @@
         <v>0</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1.33332</v>
+        <v>0.999999</v>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:53</t>
+          <t>2024-12-01 14:13:27</t>
         </is>
       </c>
       <c r="F36" s="0" t="inlineStr">
@@ -4564,11 +4571,11 @@
         <v>0</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1.33332</v>
+        <v>0.999999</v>
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:54</t>
+          <t>2024-12-01 14:13:29</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
@@ -4580,11 +4587,11 @@
         <v>0</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.99999</v>
+        <v>0.999999</v>
       </c>
       <c r="M36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:56</t>
+          <t>2024-12-01 14:13:33</t>
         </is>
       </c>
       <c r="N36" s="0" t="inlineStr">
@@ -4596,11 +4603,11 @@
         <v>0</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>1.33332</v>
+        <v>1.33333</v>
       </c>
       <c r="Q36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:58</t>
+          <t>2024-12-01 14:13:37</t>
         </is>
       </c>
       <c r="R36" s="0" t="inlineStr">
@@ -4612,11 +4619,11 @@
         <v>0</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>1.33332</v>
+        <v>1.33333</v>
       </c>
       <c r="U36" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:55</t>
+          <t>2024-12-01 14:13:31</t>
         </is>
       </c>
     </row>
@@ -4630,11 +4637,11 @@
         <v>0</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1.33332</v>
+        <v>0.999999</v>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:55</t>
+          <t>2024-12-01 14:13:31</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
@@ -4646,11 +4653,11 @@
         <v>0</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1.33332</v>
+        <v>0.999999</v>
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:56</t>
+          <t>2024-12-01 14:13:33</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
@@ -4659,14 +4666,14 @@
         </is>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.99999</v>
+        <v>0.999999</v>
       </c>
       <c r="M37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:58</t>
+          <t>2024-12-01 14:13:37</t>
         </is>
       </c>
       <c r="N37" s="0" t="inlineStr">
@@ -4678,11 +4685,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>1.33332</v>
+        <v>1.33333</v>
       </c>
       <c r="Q37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:59</t>
+          <t>2024-12-01 14:13:39</t>
         </is>
       </c>
       <c r="R37" s="0" t="inlineStr">
@@ -4691,14 +4698,14 @@
         </is>
       </c>
       <c r="S37" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>1.33332</v>
+        <v>1.33333</v>
       </c>
       <c r="U37" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:56</t>
+          <t>2024-12-01 14:13:33</t>
         </is>
       </c>
     </row>
@@ -4709,14 +4716,14 @@
         </is>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1.33332</v>
+        <v>0.999999</v>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:55</t>
+          <t>2024-12-01 14:13:31</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
@@ -4728,11 +4735,11 @@
         <v>0</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>126.333</v>
+        <v>126</v>
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:57</t>
+          <t>2024-12-01 14:13:35</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
@@ -4744,11 +4751,11 @@
         <v>0</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.99999</v>
+        <v>0.999999</v>
       </c>
       <c r="M38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:58</t>
+          <t>2024-12-01 14:13:37</t>
         </is>
       </c>
       <c r="N38" s="0" t="inlineStr">
@@ -4760,11 +4767,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>1.33332</v>
+        <v>1.33333</v>
       </c>
       <c r="Q38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:59</t>
+          <t>2024-12-01 14:13:39</t>
         </is>
       </c>
       <c r="R38" s="0" t="inlineStr">
@@ -4773,14 +4780,14 @@
         </is>
       </c>
       <c r="S38" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="T38" s="0" t="n">
-        <v>1.33332</v>
+        <v>1.66666</v>
       </c>
       <c r="U38" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:57</t>
+          <t>2024-12-01 14:13:35</t>
         </is>
       </c>
     </row>
@@ -4794,11 +4801,11 @@
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>4.66665</v>
+        <v>5</v>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:59</t>
+          <t>2024-12-01 14:13:39</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
@@ -4807,14 +4814,14 @@
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>126.333</v>
+        <v>126</v>
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:58</t>
+          <t>2024-12-01 14:13:37</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
@@ -4823,14 +4830,14 @@
         </is>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.99999</v>
+        <v>0.999999</v>
       </c>
       <c r="M39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:02</t>
+          <t>2024-12-01 14:13:45</t>
         </is>
       </c>
       <c r="N39" s="0" t="inlineStr">
@@ -4839,14 +4846,14 @@
         </is>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>1.33332</v>
+        <v>1.33333</v>
       </c>
       <c r="Q39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:59</t>
+          <t>2024-12-01 14:13:39</t>
         </is>
       </c>
       <c r="R39" s="0" t="inlineStr">
@@ -4858,11 +4865,11 @@
         <v>1</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>5.66665</v>
+        <v>6.66666</v>
       </c>
       <c r="U39" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:02</t>
+          <t>2024-12-01 14:13:45</t>
         </is>
       </c>
     </row>
@@ -4876,11 +4883,11 @@
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>9.666650000000001</v>
+        <v>10</v>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:04</t>
+          <t>2024-12-01 14:13:49</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
@@ -4896,7 +4903,7 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:20:59</t>
+          <t>2024-12-01 14:13:39</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
@@ -4908,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.99999</v>
+        <v>0.999999</v>
       </c>
       <c r="M40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:02</t>
+          <t>2024-12-01 14:13:45</t>
         </is>
       </c>
       <c r="N40" s="0" t="inlineStr">
@@ -4924,11 +4931,11 @@
         <v>0</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>8.666650000000001</v>
+        <v>9.33333</v>
       </c>
       <c r="Q40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:07</t>
+          <t>2024-12-01 14:13:55</t>
         </is>
       </c>
       <c r="R40" s="0" t="inlineStr">
@@ -4940,11 +4947,11 @@
         <v>0</v>
       </c>
       <c r="T40" s="0" t="n">
-        <v>5.66665</v>
+        <v>6.66666</v>
       </c>
       <c r="U40" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:02</t>
+          <t>2024-12-01 14:13:45</t>
         </is>
       </c>
     </row>
@@ -4958,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>109.667</v>
+        <v>110</v>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:08</t>
+          <t>2024-12-01 14:13:57</t>
         </is>
       </c>
       <c r="F41" s="0" t="inlineStr">
@@ -4978,7 +4985,7 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:01</t>
+          <t>2024-12-01 14:13:43</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
@@ -4987,14 +4994,14 @@
         </is>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.99999</v>
+        <v>0.999999</v>
       </c>
       <c r="M41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:03</t>
+          <t>2024-12-01 14:13:47</t>
         </is>
       </c>
       <c r="N41" s="0" t="inlineStr">
@@ -5006,11 +5013,11 @@
         <v>1</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>8.666650000000001</v>
+        <v>9.33333</v>
       </c>
       <c r="Q41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:08</t>
+          <t>2024-12-01 14:13:57</t>
         </is>
       </c>
       <c r="R41" s="0" t="inlineStr">
@@ -5019,14 +5026,14 @@
         </is>
       </c>
       <c r="S41" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>5.66665</v>
+        <v>6.66666</v>
       </c>
       <c r="U41" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:03</t>
+          <t>2024-12-01 14:13:47</t>
         </is>
       </c>
     </row>
@@ -5040,11 +5047,11 @@
         <v>0</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>109.667</v>
+        <v>110</v>
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:08</t>
+          <t>2024-12-01 14:13:57</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
@@ -5053,14 +5060,14 @@
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>126.333</v>
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:02</t>
+          <t>2024-12-01 14:13:45</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
@@ -5069,14 +5076,14 @@
         </is>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.99999</v>
+        <v>1.33333</v>
       </c>
       <c r="M42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:04</t>
+          <t>2024-12-01 14:13:49</t>
         </is>
       </c>
       <c r="N42" s="0" t="inlineStr">
@@ -5088,11 +5095,11 @@
         <v>1</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>8.666650000000001</v>
+        <v>9.33333</v>
       </c>
       <c r="Q42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:08</t>
+          <t>2024-12-01 14:13:57</t>
         </is>
       </c>
       <c r="R42" s="0" t="inlineStr">
@@ -5104,11 +5111,11 @@
         <v>0</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>5.66665</v>
+        <v>6.66666</v>
       </c>
       <c r="U42" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:03</t>
+          <t>2024-12-01 14:13:47</t>
         </is>
       </c>
     </row>
@@ -5122,11 +5129,11 @@
         <v>0</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>109.667</v>
+        <v>110</v>
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:14</t>
+          <t>2024-12-01 14:14:06</t>
         </is>
       </c>
       <c r="F43" s="0" t="inlineStr">
@@ -5138,11 +5145,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>126.999</v>
+        <v>126.666</v>
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:03</t>
+          <t>2024-12-01 14:13:47</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
@@ -5151,14 +5158,14 @@
         </is>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.99999</v>
+        <v>1.33333</v>
       </c>
       <c r="M43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:04</t>
+          <t>2024-12-01 14:13:49</t>
         </is>
       </c>
       <c r="N43" s="0" t="inlineStr">
@@ -5170,11 +5177,11 @@
         <v>1</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>8.666650000000001</v>
+        <v>9.33333</v>
       </c>
       <c r="Q43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:08</t>
+          <t>2024-12-01 14:13:57</t>
         </is>
       </c>
       <c r="R43" s="0" t="inlineStr">
@@ -5186,93 +5193,93 @@
         <v>0</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>5.66665</v>
+        <v>6.66666</v>
       </c>
       <c r="U43" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:21:05</t>
+          <t>2024-12-01 14:13:51</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="inlineStr">
         <is>
+          <t>turn on</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>2024-12-01 14:14:10</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
           <t>turn off</t>
         </is>
       </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>109</v>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-30 21:11:19</t>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>126.666</v>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>2024-12-01 14:13:53</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
+          <t>removed from serve queue</t>
+        </is>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>1.66666</v>
+      </c>
+      <c r="M44" s="0" t="inlineStr">
+        <is>
+          <t>2024-12-01 14:13:51</t>
+        </is>
+      </c>
+      <c r="N44" s="0" t="inlineStr">
         <is>
           <t>turn off</t>
         </is>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>125.999</v>
-      </c>
-      <c r="I44" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-30 21:11:11</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>add to serve queue</t>
-        </is>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>0.33333</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>0.99999</v>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-30 21:11:12</t>
-        </is>
-      </c>
-      <c r="N44" s="0" t="inlineStr">
+      <c r="O44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>12.8333</v>
+      </c>
+      <c r="Q44" s="0" t="inlineStr">
+        <is>
+          <t>2024-12-01 14:14:11</t>
+        </is>
+      </c>
+      <c r="R44" s="0" t="inlineStr">
         <is>
           <t>update mode</t>
         </is>
       </c>
-      <c r="O44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>5.66666</v>
-      </c>
-      <c r="Q44" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:49:26</t>
-        </is>
-      </c>
-      <c r="R44" s="0" t="inlineStr">
-        <is>
-          <t>turn off</t>
-        </is>
-      </c>
       <c r="S44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>18.6666</v>
+        <v>6.66666</v>
       </c>
       <c r="U44" s="0" t="inlineStr">
         <is>
-          <t>2024-11-30 21:11:18</t>
+          <t>2024-12-01 14:13:51</t>
         </is>
       </c>
     </row>
@@ -5286,27 +5293,27 @@
         <v>0</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>107.666</v>
+        <v>210</v>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:49:32</t>
+          <t>2024-12-01 14:14:10</t>
         </is>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>turn off</t>
+          <t>turn on</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>251.333</v>
+        <v>251.666</v>
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:49:33</t>
+          <t>2024-12-01 14:13:59</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
@@ -5315,14 +5322,14 @@
         </is>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.33333</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>2.66664</v>
+        <v>1.66666</v>
       </c>
       <c r="M45" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:45:09</t>
+          <t>2024-12-01 14:13:55</t>
         </is>
       </c>
       <c r="N45" s="0" t="inlineStr">
@@ -5343,52 +5350,52 @@
       </c>
       <c r="R45" s="0" t="inlineStr">
         <is>
-          <t>removed from serve queue</t>
+          <t>add to serve queue</t>
         </is>
       </c>
       <c r="S45" s="0" t="n">
-        <v>0</v>
+        <v>0.333333</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>5.33332</v>
+        <v>6.66666</v>
       </c>
       <c r="U45" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:49:25</t>
+          <t>2024-12-01 14:13:51</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>turn off</t>
+          <t>update temperature</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>107.666</v>
+        <v>210</v>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:49:32</t>
+          <t>2024-12-01 14:14:10</t>
         </is>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>turn off</t>
+          <t>add to serve queue</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>126.999</v>
+        <v>251.666</v>
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:45:08</t>
+          <t>2024-12-01 14:14:10</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
@@ -5397,14 +5404,14 @@
         </is>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>2.99997</v>
+        <v>1.66666</v>
       </c>
       <c r="M46" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:45:09</t>
+          <t>2024-12-01 14:13:55</t>
         </is>
       </c>
       <c r="N46" s="0" t="inlineStr">
@@ -5425,68 +5432,68 @@
       </c>
       <c r="R46" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>update temperature</t>
         </is>
       </c>
       <c r="S46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>5.33332</v>
+        <v>11.6667</v>
       </c>
       <c r="U46" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:49:26</t>
+          <t>2024-12-01 14:14:01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>removed from serve queue</t>
+          <t>update temperature</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>2024-12-01 14:14:11</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>251.666</v>
+      </c>
+      <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>2024-12-01 14:14:11</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="inlineStr">
+        <is>
+          <t>turn off</t>
+        </is>
+      </c>
+      <c r="K47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>117.332</v>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:45:08</t>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>removed from serve queue</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>253.331</v>
-      </c>
-      <c r="I47" s="0" t="inlineStr">
-        <is>
-          <t>2024-11-29 22:45:11</t>
-        </is>
-      </c>
-      <c r="J47" s="0" t="inlineStr">
-        <is>
-          <t>removed from serve queue</t>
-        </is>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>0.33333</v>
-      </c>
       <c r="L47" s="0" t="n">
-        <v>2.99997</v>
+        <v>6.66666</v>
       </c>
       <c r="M47" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:45:09</t>
+          <t>2024-12-01 14:14:05</t>
         </is>
       </c>
       <c r="N47" s="0" t="inlineStr">
@@ -5507,36 +5514,36 @@
       </c>
       <c r="R47" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>turn off</t>
         </is>
       </c>
       <c r="S47" s="0" t="n">
-        <v>0.33333</v>
+        <v>1</v>
       </c>
       <c r="T47" s="0" t="n">
-        <v>4.66662</v>
+        <v>14.6667</v>
       </c>
       <c r="U47" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:45:04</t>
+          <t>2024-12-01 14:14:07</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>add to serve queue</t>
+          <t>update temperature</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.33333</v>
+        <v>0.333333</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>118.664</v>
+        <v>210.333</v>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>2024-11-29 22:45:10</t>
+          <t>2024-12-01 14:14:11</t>
         </is>
       </c>
       <c r="F48" s="0" t="inlineStr">
